--- a/Documentation/Rover_Controller_BOM.xlsx
+++ b/Documentation/Rover_Controller_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\RemoteController_Hardware\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\Documents\GitHub\RemoteController_Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D582BA2-8B85-4AD2-8454-85A806987859}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B344F3-B1BD-450A-8C4B-E803C70EA662}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="16220" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MRDT BOM Template.csv" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
   <si>
     <t>Id</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Os102011MA1QN1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/adafruit-industries-llc/3046/1528-1901-ND/6674211</t>
+  </si>
+  <si>
+    <t>1528-1901-ND</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -506,18 +512,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -840,16 +847,17 @@
   <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="11"/>
+    <col min="1" max="1" width="5.54296875" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -928,12 +936,12 @@
       <c r="M2">
         <v>8</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="19"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -971,13 +979,13 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="23">
         <f>SUM(J2:J1001)</f>
-        <v>38.07</v>
-      </c>
-      <c r="P3" s="19"/>
-    </row>
-    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+        <v>57.019999999999996</v>
+      </c>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1015,10 +1023,10 @@
       <c r="M4" s="1">
         <v>3</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1096,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1151,7 +1159,7 @@
       <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>96</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -1174,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1213,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1291,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -1330,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -1369,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -1408,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1463,18 +1471,30 @@
       <c r="E16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
+      <c r="F16" s="13">
+        <v>3046</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="5">
+        <v>18.95</v>
+      </c>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+        <v>18.95</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -1513,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -1552,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -1591,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -1613,7 +1633,7 @@
       <c r="G20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="19" t="s">
         <v>71</v>
       </c>
       <c r="I20" s="5">
@@ -1630,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -1669,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1681,7 +1701,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1693,7 +1713,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1705,7 +1725,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1717,7 +1737,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1729,7 +1749,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1741,7 +1761,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1753,7 +1773,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1765,7 +1785,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1777,7 +1797,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1789,7 +1809,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1801,7 +1821,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1813,7 +1833,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1825,7 +1845,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1837,7 +1857,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1849,7 +1869,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1861,7 +1881,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1873,7 +1893,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1885,3857 +1905,3857 @@
       <c r="J39" s="6"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F41" s="9"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F42" s="8"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F43" s="10"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="89" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
     </row>
-    <row r="91" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
     </row>
-    <row r="94" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
     </row>
-    <row r="96" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
     </row>
-    <row r="97" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
     </row>
-    <row r="98" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
     </row>
-    <row r="99" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
     </row>
-    <row r="104" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
     </row>
-    <row r="105" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
     </row>
-    <row r="106" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
     </row>
-    <row r="108" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
     </row>
-    <row r="109" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
     </row>
-    <row r="110" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
     </row>
-    <row r="111" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
     </row>
-    <row r="112" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
     </row>
-    <row r="113" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
     </row>
-    <row r="114" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
     </row>
-    <row r="115" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
     </row>
-    <row r="116" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
     </row>
-    <row r="117" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
     </row>
-    <row r="118" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
     </row>
-    <row r="119" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
     </row>
-    <row r="120" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
     </row>
-    <row r="121" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
     </row>
-    <row r="122" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
     </row>
-    <row r="123" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
     </row>
-    <row r="124" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
     </row>
-    <row r="125" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
     </row>
-    <row r="126" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
     </row>
-    <row r="127" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
     </row>
-    <row r="128" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
     </row>
-    <row r="129" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
     </row>
-    <row r="130" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
     </row>
-    <row r="131" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
     </row>
-    <row r="132" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
     </row>
-    <row r="133" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
     </row>
-    <row r="134" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
     </row>
-    <row r="135" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
     </row>
-    <row r="136" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
     </row>
-    <row r="137" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
     </row>
-    <row r="138" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
     </row>
-    <row r="139" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
     </row>
-    <row r="140" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
     </row>
-    <row r="141" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
     </row>
-    <row r="142" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
     </row>
-    <row r="143" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
     </row>
-    <row r="144" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
     </row>
-    <row r="145" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
     </row>
-    <row r="146" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
     </row>
-    <row r="147" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
     </row>
-    <row r="148" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
     </row>
-    <row r="149" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
     </row>
-    <row r="150" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
     </row>
-    <row r="151" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
     </row>
-    <row r="152" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
     </row>
-    <row r="153" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
     </row>
-    <row r="154" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
     </row>
-    <row r="155" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
     </row>
-    <row r="156" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
     </row>
-    <row r="157" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
     </row>
-    <row r="158" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
     </row>
-    <row r="159" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
     </row>
-    <row r="160" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
     </row>
-    <row r="161" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
     </row>
-    <row r="162" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
     </row>
-    <row r="163" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
     </row>
-    <row r="164" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
     </row>
-    <row r="165" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
     </row>
-    <row r="166" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
     </row>
-    <row r="167" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
     </row>
-    <row r="168" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
     </row>
-    <row r="169" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
     </row>
-    <row r="170" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
     </row>
-    <row r="171" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
     </row>
-    <row r="172" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
     </row>
-    <row r="173" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
     </row>
-    <row r="175" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
     </row>
-    <row r="176" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
     </row>
-    <row r="177" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
     </row>
-    <row r="178" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
     </row>
-    <row r="179" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
     </row>
-    <row r="180" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
     </row>
-    <row r="181" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
     </row>
-    <row r="182" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
     </row>
-    <row r="183" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
     </row>
-    <row r="184" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
     </row>
-    <row r="185" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
     </row>
-    <row r="186" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
     </row>
-    <row r="187" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
     </row>
-    <row r="188" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
     </row>
-    <row r="189" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
     </row>
-    <row r="190" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
     </row>
-    <row r="191" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
     </row>
-    <row r="192" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
     </row>
-    <row r="193" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
     </row>
-    <row r="194" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
     </row>
-    <row r="195" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
     </row>
-    <row r="196" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
     </row>
-    <row r="197" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
     </row>
-    <row r="198" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
     </row>
-    <row r="199" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
     </row>
-    <row r="200" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
     </row>
-    <row r="201" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
     </row>
-    <row r="202" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
     </row>
-    <row r="203" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
     </row>
-    <row r="204" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
     </row>
-    <row r="205" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
     </row>
-    <row r="206" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
     </row>
-    <row r="207" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
     </row>
-    <row r="208" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
     </row>
-    <row r="209" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
     </row>
-    <row r="210" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
     </row>
-    <row r="211" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
     </row>
-    <row r="212" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
     </row>
-    <row r="213" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
     </row>
-    <row r="214" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
     </row>
-    <row r="215" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
     </row>
-    <row r="216" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
     </row>
-    <row r="217" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
     </row>
-    <row r="218" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
     </row>
-    <row r="219" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
     </row>
-    <row r="220" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
     </row>
-    <row r="221" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
     </row>
-    <row r="222" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
     </row>
-    <row r="223" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
     </row>
-    <row r="224" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
     </row>
-    <row r="225" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
     </row>
-    <row r="226" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
     </row>
-    <row r="227" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
     </row>
-    <row r="228" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
     </row>
-    <row r="229" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
     </row>
-    <row r="230" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
     </row>
-    <row r="231" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
     </row>
-    <row r="232" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
     </row>
-    <row r="233" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
     </row>
-    <row r="234" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
     </row>
-    <row r="235" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
     </row>
-    <row r="236" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
     </row>
-    <row r="237" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
     </row>
-    <row r="238" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
     </row>
-    <row r="239" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
     </row>
-    <row r="240" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
     </row>
-    <row r="241" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
     </row>
-    <row r="242" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
     </row>
-    <row r="243" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
     </row>
-    <row r="244" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
     </row>
-    <row r="245" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
     </row>
-    <row r="246" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
     </row>
-    <row r="247" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
     </row>
-    <row r="248" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
     </row>
-    <row r="249" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
     </row>
-    <row r="250" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
     </row>
-    <row r="251" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
     </row>
-    <row r="252" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
     </row>
-    <row r="253" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
     </row>
-    <row r="254" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
     </row>
-    <row r="255" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
     </row>
-    <row r="256" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
     </row>
-    <row r="257" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
     </row>
-    <row r="258" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
     </row>
-    <row r="259" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
     </row>
-    <row r="260" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I260" s="6"/>
       <c r="J260" s="6"/>
     </row>
-    <row r="261" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
     </row>
-    <row r="262" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
     </row>
-    <row r="263" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
     </row>
-    <row r="264" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
     </row>
-    <row r="265" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
     </row>
-    <row r="266" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
     </row>
-    <row r="267" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
     </row>
-    <row r="268" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
     </row>
-    <row r="269" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
     </row>
-    <row r="270" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I270" s="6"/>
       <c r="J270" s="6"/>
     </row>
-    <row r="271" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
     </row>
-    <row r="272" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
     </row>
-    <row r="273" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
     </row>
-    <row r="274" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I274" s="6"/>
       <c r="J274" s="6"/>
     </row>
-    <row r="275" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I275" s="6"/>
       <c r="J275" s="6"/>
     </row>
-    <row r="276" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I276" s="6"/>
       <c r="J276" s="6"/>
     </row>
-    <row r="277" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I277" s="6"/>
       <c r="J277" s="6"/>
     </row>
-    <row r="278" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
     </row>
-    <row r="279" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I279" s="6"/>
       <c r="J279" s="6"/>
     </row>
-    <row r="280" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I280" s="6"/>
       <c r="J280" s="6"/>
     </row>
-    <row r="281" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I281" s="6"/>
       <c r="J281" s="6"/>
     </row>
-    <row r="282" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I282" s="6"/>
       <c r="J282" s="6"/>
     </row>
-    <row r="283" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I283" s="6"/>
       <c r="J283" s="6"/>
     </row>
-    <row r="284" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I284" s="6"/>
       <c r="J284" s="6"/>
     </row>
-    <row r="285" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I285" s="6"/>
       <c r="J285" s="6"/>
     </row>
-    <row r="286" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
     </row>
-    <row r="287" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
     </row>
-    <row r="288" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I288" s="6"/>
       <c r="J288" s="6"/>
     </row>
-    <row r="289" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I289" s="6"/>
       <c r="J289" s="6"/>
     </row>
-    <row r="290" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I290" s="6"/>
       <c r="J290" s="6"/>
     </row>
-    <row r="291" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I291" s="6"/>
       <c r="J291" s="6"/>
     </row>
-    <row r="292" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I292" s="6"/>
       <c r="J292" s="6"/>
     </row>
-    <row r="293" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I293" s="6"/>
       <c r="J293" s="6"/>
     </row>
-    <row r="294" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I294" s="6"/>
       <c r="J294" s="6"/>
     </row>
-    <row r="295" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I295" s="6"/>
       <c r="J295" s="6"/>
     </row>
-    <row r="296" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
     </row>
-    <row r="297" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I297" s="6"/>
       <c r="J297" s="6"/>
     </row>
-    <row r="298" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
     </row>
-    <row r="299" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I299" s="6"/>
       <c r="J299" s="6"/>
     </row>
-    <row r="300" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I300" s="6"/>
       <c r="J300" s="6"/>
     </row>
-    <row r="301" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I301" s="6"/>
       <c r="J301" s="6"/>
     </row>
-    <row r="302" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I302" s="6"/>
       <c r="J302" s="6"/>
     </row>
-    <row r="303" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
     </row>
-    <row r="304" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
     </row>
-    <row r="305" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I305" s="6"/>
       <c r="J305" s="6"/>
     </row>
-    <row r="306" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I306" s="6"/>
       <c r="J306" s="6"/>
     </row>
-    <row r="307" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I307" s="6"/>
       <c r="J307" s="6"/>
     </row>
-    <row r="308" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
     </row>
-    <row r="309" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
     </row>
-    <row r="310" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
     </row>
-    <row r="311" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
     </row>
-    <row r="312" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
     </row>
-    <row r="313" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I313" s="6"/>
       <c r="J313" s="6"/>
     </row>
-    <row r="314" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I314" s="6"/>
       <c r="J314" s="6"/>
     </row>
-    <row r="315" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
     </row>
-    <row r="316" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I316" s="6"/>
       <c r="J316" s="6"/>
     </row>
-    <row r="317" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I317" s="6"/>
       <c r="J317" s="6"/>
     </row>
-    <row r="318" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I318" s="6"/>
       <c r="J318" s="6"/>
     </row>
-    <row r="319" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I319" s="6"/>
       <c r="J319" s="6"/>
     </row>
-    <row r="320" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I320" s="6"/>
       <c r="J320" s="6"/>
     </row>
-    <row r="321" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I321" s="6"/>
       <c r="J321" s="6"/>
     </row>
-    <row r="322" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I322" s="6"/>
       <c r="J322" s="6"/>
     </row>
-    <row r="323" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I323" s="6"/>
       <c r="J323" s="6"/>
     </row>
-    <row r="324" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I324" s="6"/>
       <c r="J324" s="6"/>
     </row>
-    <row r="325" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I325" s="6"/>
       <c r="J325" s="6"/>
     </row>
-    <row r="326" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I326" s="6"/>
       <c r="J326" s="6"/>
     </row>
-    <row r="327" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I327" s="6"/>
       <c r="J327" s="6"/>
     </row>
-    <row r="328" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I328" s="6"/>
       <c r="J328" s="6"/>
     </row>
-    <row r="329" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I329" s="6"/>
       <c r="J329" s="6"/>
     </row>
-    <row r="330" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I330" s="6"/>
       <c r="J330" s="6"/>
     </row>
-    <row r="331" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I331" s="6"/>
       <c r="J331" s="6"/>
     </row>
-    <row r="332" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I332" s="6"/>
       <c r="J332" s="6"/>
     </row>
-    <row r="333" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I333" s="6"/>
       <c r="J333" s="6"/>
     </row>
-    <row r="334" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I334" s="6"/>
       <c r="J334" s="6"/>
     </row>
-    <row r="335" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I335" s="6"/>
       <c r="J335" s="6"/>
     </row>
-    <row r="336" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I336" s="6"/>
       <c r="J336" s="6"/>
     </row>
-    <row r="337" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I337" s="6"/>
       <c r="J337" s="6"/>
     </row>
-    <row r="338" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I338" s="6"/>
       <c r="J338" s="6"/>
     </row>
-    <row r="339" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I339" s="6"/>
       <c r="J339" s="6"/>
     </row>
-    <row r="340" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I340" s="6"/>
       <c r="J340" s="6"/>
     </row>
-    <row r="341" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
     </row>
-    <row r="342" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I342" s="6"/>
       <c r="J342" s="6"/>
     </row>
-    <row r="343" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I343" s="6"/>
       <c r="J343" s="6"/>
     </row>
-    <row r="344" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
     </row>
-    <row r="345" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
     </row>
-    <row r="346" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
     </row>
-    <row r="347" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
     </row>
-    <row r="348" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
     </row>
-    <row r="349" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
     </row>
-    <row r="350" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I350" s="6"/>
       <c r="J350" s="6"/>
     </row>
-    <row r="351" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I351" s="6"/>
       <c r="J351" s="6"/>
     </row>
-    <row r="352" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I352" s="6"/>
       <c r="J352" s="6"/>
     </row>
-    <row r="353" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I353" s="6"/>
       <c r="J353" s="6"/>
     </row>
-    <row r="354" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I354" s="6"/>
       <c r="J354" s="6"/>
     </row>
-    <row r="355" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I355" s="6"/>
       <c r="J355" s="6"/>
     </row>
-    <row r="356" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I356" s="6"/>
       <c r="J356" s="6"/>
     </row>
-    <row r="357" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I357" s="6"/>
       <c r="J357" s="6"/>
     </row>
-    <row r="358" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I358" s="6"/>
       <c r="J358" s="6"/>
     </row>
-    <row r="359" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
     </row>
-    <row r="360" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I360" s="6"/>
       <c r="J360" s="6"/>
     </row>
-    <row r="361" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I361" s="6"/>
       <c r="J361" s="6"/>
     </row>
-    <row r="362" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I362" s="6"/>
       <c r="J362" s="6"/>
     </row>
-    <row r="363" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I363" s="6"/>
       <c r="J363" s="6"/>
     </row>
-    <row r="364" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I364" s="6"/>
       <c r="J364" s="6"/>
     </row>
-    <row r="365" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I365" s="6"/>
       <c r="J365" s="6"/>
     </row>
-    <row r="366" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I366" s="6"/>
       <c r="J366" s="6"/>
     </row>
-    <row r="367" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I367" s="6"/>
       <c r="J367" s="6"/>
     </row>
-    <row r="368" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I368" s="6"/>
       <c r="J368" s="6"/>
     </row>
-    <row r="369" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I369" s="6"/>
       <c r="J369" s="6"/>
     </row>
-    <row r="370" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I370" s="6"/>
       <c r="J370" s="6"/>
     </row>
-    <row r="371" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I371" s="6"/>
       <c r="J371" s="6"/>
     </row>
-    <row r="372" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I372" s="6"/>
       <c r="J372" s="6"/>
     </row>
-    <row r="373" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I373" s="6"/>
       <c r="J373" s="6"/>
     </row>
-    <row r="374" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
     </row>
-    <row r="375" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
     </row>
-    <row r="376" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I376" s="6"/>
       <c r="J376" s="6"/>
     </row>
-    <row r="377" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I377" s="6"/>
       <c r="J377" s="6"/>
     </row>
-    <row r="378" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I378" s="6"/>
       <c r="J378" s="6"/>
     </row>
-    <row r="379" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I379" s="6"/>
       <c r="J379" s="6"/>
     </row>
-    <row r="380" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I380" s="6"/>
       <c r="J380" s="6"/>
     </row>
-    <row r="381" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I381" s="6"/>
       <c r="J381" s="6"/>
     </row>
-    <row r="382" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I382" s="6"/>
       <c r="J382" s="6"/>
     </row>
-    <row r="383" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
     </row>
-    <row r="384" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I384" s="6"/>
       <c r="J384" s="6"/>
     </row>
-    <row r="385" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I385" s="6"/>
       <c r="J385" s="6"/>
     </row>
-    <row r="386" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I386" s="6"/>
       <c r="J386" s="6"/>
     </row>
-    <row r="387" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I387" s="6"/>
       <c r="J387" s="6"/>
     </row>
-    <row r="388" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I388" s="6"/>
       <c r="J388" s="6"/>
     </row>
-    <row r="389" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I389" s="6"/>
       <c r="J389" s="6"/>
     </row>
-    <row r="390" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I390" s="6"/>
       <c r="J390" s="6"/>
     </row>
-    <row r="391" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I391" s="6"/>
       <c r="J391" s="6"/>
     </row>
-    <row r="392" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I392" s="6"/>
       <c r="J392" s="6"/>
     </row>
-    <row r="393" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I393" s="6"/>
       <c r="J393" s="6"/>
     </row>
-    <row r="394" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I394" s="6"/>
       <c r="J394" s="6"/>
     </row>
-    <row r="395" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I395" s="6"/>
       <c r="J395" s="6"/>
     </row>
-    <row r="396" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I396" s="6"/>
       <c r="J396" s="6"/>
     </row>
-    <row r="397" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I397" s="6"/>
       <c r="J397" s="6"/>
     </row>
-    <row r="398" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I398" s="6"/>
       <c r="J398" s="6"/>
     </row>
-    <row r="399" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I399" s="6"/>
       <c r="J399" s="6"/>
     </row>
-    <row r="400" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I400" s="6"/>
       <c r="J400" s="6"/>
     </row>
-    <row r="401" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I401" s="6"/>
       <c r="J401" s="6"/>
     </row>
-    <row r="402" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I402" s="6"/>
       <c r="J402" s="6"/>
     </row>
-    <row r="403" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I403" s="6"/>
       <c r="J403" s="6"/>
     </row>
-    <row r="404" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I404" s="6"/>
       <c r="J404" s="6"/>
     </row>
-    <row r="405" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I405" s="6"/>
       <c r="J405" s="6"/>
     </row>
-    <row r="406" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I406" s="6"/>
       <c r="J406" s="6"/>
     </row>
-    <row r="407" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I407" s="6"/>
       <c r="J407" s="6"/>
     </row>
-    <row r="408" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I408" s="6"/>
       <c r="J408" s="6"/>
     </row>
-    <row r="409" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I409" s="6"/>
       <c r="J409" s="6"/>
     </row>
-    <row r="410" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I410" s="6"/>
       <c r="J410" s="6"/>
     </row>
-    <row r="411" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I411" s="6"/>
       <c r="J411" s="6"/>
     </row>
-    <row r="412" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I412" s="6"/>
       <c r="J412" s="6"/>
     </row>
-    <row r="413" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I413" s="6"/>
       <c r="J413" s="6"/>
     </row>
-    <row r="414" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I414" s="6"/>
       <c r="J414" s="6"/>
     </row>
-    <row r="415" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I415" s="6"/>
       <c r="J415" s="6"/>
     </row>
-    <row r="416" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I416" s="6"/>
       <c r="J416" s="6"/>
     </row>
-    <row r="417" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I417" s="6"/>
       <c r="J417" s="6"/>
     </row>
-    <row r="418" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I418" s="6"/>
       <c r="J418" s="6"/>
     </row>
-    <row r="419" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I419" s="6"/>
       <c r="J419" s="6"/>
     </row>
-    <row r="420" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I420" s="6"/>
       <c r="J420" s="6"/>
     </row>
-    <row r="421" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I421" s="6"/>
       <c r="J421" s="6"/>
     </row>
-    <row r="422" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I422" s="6"/>
       <c r="J422" s="6"/>
     </row>
-    <row r="423" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I423" s="6"/>
       <c r="J423" s="6"/>
     </row>
-    <row r="424" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I424" s="6"/>
       <c r="J424" s="6"/>
     </row>
-    <row r="425" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I425" s="6"/>
       <c r="J425" s="6"/>
     </row>
-    <row r="426" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I426" s="6"/>
       <c r="J426" s="6"/>
     </row>
-    <row r="427" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I427" s="6"/>
       <c r="J427" s="6"/>
     </row>
-    <row r="428" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I428" s="6"/>
       <c r="J428" s="6"/>
     </row>
-    <row r="429" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I429" s="6"/>
       <c r="J429" s="6"/>
     </row>
-    <row r="430" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I430" s="6"/>
       <c r="J430" s="6"/>
     </row>
-    <row r="431" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I431" s="6"/>
       <c r="J431" s="6"/>
     </row>
-    <row r="432" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I432" s="6"/>
       <c r="J432" s="6"/>
     </row>
-    <row r="433" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I433" s="6"/>
       <c r="J433" s="6"/>
     </row>
-    <row r="434" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I434" s="6"/>
       <c r="J434" s="6"/>
     </row>
-    <row r="435" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I435" s="6"/>
       <c r="J435" s="6"/>
     </row>
-    <row r="436" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I436" s="6"/>
       <c r="J436" s="6"/>
     </row>
-    <row r="437" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I437" s="6"/>
       <c r="J437" s="6"/>
     </row>
-    <row r="438" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
     </row>
-    <row r="439" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
     </row>
-    <row r="440" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I440" s="6"/>
       <c r="J440" s="6"/>
     </row>
-    <row r="441" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I441" s="6"/>
       <c r="J441" s="6"/>
     </row>
-    <row r="442" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I442" s="6"/>
       <c r="J442" s="6"/>
     </row>
-    <row r="443" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I443" s="6"/>
       <c r="J443" s="6"/>
     </row>
-    <row r="444" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I444" s="6"/>
       <c r="J444" s="6"/>
     </row>
-    <row r="445" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I445" s="6"/>
       <c r="J445" s="6"/>
     </row>
-    <row r="446" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I446" s="6"/>
       <c r="J446" s="6"/>
     </row>
-    <row r="447" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I447" s="6"/>
       <c r="J447" s="6"/>
     </row>
-    <row r="448" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I448" s="6"/>
       <c r="J448" s="6"/>
     </row>
-    <row r="449" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I449" s="6"/>
       <c r="J449" s="6"/>
     </row>
-    <row r="450" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I450" s="6"/>
       <c r="J450" s="6"/>
     </row>
-    <row r="451" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I451" s="6"/>
       <c r="J451" s="6"/>
     </row>
-    <row r="452" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I452" s="6"/>
       <c r="J452" s="6"/>
     </row>
-    <row r="453" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I453" s="6"/>
       <c r="J453" s="6"/>
     </row>
-    <row r="454" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
     </row>
-    <row r="455" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
     </row>
-    <row r="456" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I456" s="6"/>
       <c r="J456" s="6"/>
     </row>
-    <row r="457" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
     </row>
-    <row r="458" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
     </row>
-    <row r="459" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I459" s="6"/>
       <c r="J459" s="6"/>
     </row>
-    <row r="460" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
     </row>
-    <row r="461" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
     </row>
-    <row r="462" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
     </row>
-    <row r="463" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I463" s="6"/>
       <c r="J463" s="6"/>
     </row>
-    <row r="464" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I464" s="6"/>
       <c r="J464" s="6"/>
     </row>
-    <row r="465" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I465" s="6"/>
       <c r="J465" s="6"/>
     </row>
-    <row r="466" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I466" s="6"/>
       <c r="J466" s="6"/>
     </row>
-    <row r="467" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I467" s="6"/>
       <c r="J467" s="6"/>
     </row>
-    <row r="468" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I468" s="6"/>
       <c r="J468" s="6"/>
     </row>
-    <row r="469" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I469" s="6"/>
       <c r="J469" s="6"/>
     </row>
-    <row r="470" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I470" s="6"/>
       <c r="J470" s="6"/>
     </row>
-    <row r="471" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I471" s="6"/>
       <c r="J471" s="6"/>
     </row>
-    <row r="472" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I472" s="6"/>
       <c r="J472" s="6"/>
     </row>
-    <row r="473" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I473" s="6"/>
       <c r="J473" s="6"/>
     </row>
-    <row r="474" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I474" s="6"/>
       <c r="J474" s="6"/>
     </row>
-    <row r="475" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I475" s="6"/>
       <c r="J475" s="6"/>
     </row>
-    <row r="476" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I476" s="6"/>
       <c r="J476" s="6"/>
     </row>
-    <row r="477" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I477" s="6"/>
       <c r="J477" s="6"/>
     </row>
-    <row r="478" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I478" s="6"/>
       <c r="J478" s="6"/>
     </row>
-    <row r="479" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I479" s="6"/>
       <c r="J479" s="6"/>
     </row>
-    <row r="480" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I480" s="6"/>
       <c r="J480" s="6"/>
     </row>
-    <row r="481" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I481" s="6"/>
       <c r="J481" s="6"/>
     </row>
-    <row r="482" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I482" s="6"/>
       <c r="J482" s="6"/>
     </row>
-    <row r="483" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I483" s="6"/>
       <c r="J483" s="6"/>
     </row>
-    <row r="484" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I484" s="6"/>
       <c r="J484" s="6"/>
     </row>
-    <row r="485" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I485" s="6"/>
       <c r="J485" s="6"/>
     </row>
-    <row r="486" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I486" s="6"/>
       <c r="J486" s="6"/>
     </row>
-    <row r="487" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I487" s="6"/>
       <c r="J487" s="6"/>
     </row>
-    <row r="488" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I488" s="6"/>
       <c r="J488" s="6"/>
     </row>
-    <row r="489" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I489" s="6"/>
       <c r="J489" s="6"/>
     </row>
-    <row r="490" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I490" s="6"/>
       <c r="J490" s="6"/>
     </row>
-    <row r="491" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I491" s="6"/>
       <c r="J491" s="6"/>
     </row>
-    <row r="492" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I492" s="6"/>
       <c r="J492" s="6"/>
     </row>
-    <row r="493" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I493" s="6"/>
       <c r="J493" s="6"/>
     </row>
-    <row r="494" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I494" s="6"/>
       <c r="J494" s="6"/>
     </row>
-    <row r="495" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I495" s="6"/>
       <c r="J495" s="6"/>
     </row>
-    <row r="496" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I496" s="6"/>
       <c r="J496" s="6"/>
     </row>
-    <row r="497" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I497" s="6"/>
       <c r="J497" s="6"/>
     </row>
-    <row r="498" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I498" s="6"/>
       <c r="J498" s="6"/>
     </row>
-    <row r="499" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I499" s="6"/>
       <c r="J499" s="6"/>
     </row>
-    <row r="500" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I500" s="6"/>
       <c r="J500" s="6"/>
     </row>
-    <row r="501" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I501" s="6"/>
       <c r="J501" s="6"/>
     </row>
-    <row r="502" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I502" s="6"/>
       <c r="J502" s="6"/>
     </row>
-    <row r="503" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I503" s="6"/>
       <c r="J503" s="6"/>
     </row>
-    <row r="504" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I504" s="6"/>
       <c r="J504" s="6"/>
     </row>
-    <row r="505" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I505" s="6"/>
       <c r="J505" s="6"/>
     </row>
-    <row r="506" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I506" s="6"/>
       <c r="J506" s="6"/>
     </row>
-    <row r="507" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I507" s="6"/>
       <c r="J507" s="6"/>
     </row>
-    <row r="508" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I508" s="6"/>
       <c r="J508" s="6"/>
     </row>
-    <row r="509" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I509" s="6"/>
       <c r="J509" s="6"/>
     </row>
-    <row r="510" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I510" s="6"/>
       <c r="J510" s="6"/>
     </row>
-    <row r="511" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I511" s="6"/>
       <c r="J511" s="6"/>
     </row>
-    <row r="512" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I512" s="6"/>
       <c r="J512" s="6"/>
     </row>
-    <row r="513" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I513" s="6"/>
       <c r="J513" s="6"/>
     </row>
-    <row r="514" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I514" s="6"/>
       <c r="J514" s="6"/>
     </row>
-    <row r="515" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I515" s="6"/>
       <c r="J515" s="6"/>
     </row>
-    <row r="516" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I516" s="6"/>
       <c r="J516" s="6"/>
     </row>
-    <row r="517" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I517" s="6"/>
       <c r="J517" s="6"/>
     </row>
-    <row r="518" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I518" s="6"/>
       <c r="J518" s="6"/>
     </row>
-    <row r="519" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I519" s="6"/>
       <c r="J519" s="6"/>
     </row>
-    <row r="520" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I520" s="6"/>
       <c r="J520" s="6"/>
     </row>
-    <row r="521" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I521" s="6"/>
       <c r="J521" s="6"/>
     </row>
-    <row r="522" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I522" s="6"/>
       <c r="J522" s="6"/>
     </row>
-    <row r="523" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I523" s="6"/>
       <c r="J523" s="6"/>
     </row>
-    <row r="524" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I524" s="6"/>
       <c r="J524" s="6"/>
     </row>
-    <row r="525" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I525" s="6"/>
       <c r="J525" s="6"/>
     </row>
-    <row r="526" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I526" s="6"/>
       <c r="J526" s="6"/>
     </row>
-    <row r="527" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I527" s="6"/>
       <c r="J527" s="6"/>
     </row>
-    <row r="528" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I528" s="6"/>
       <c r="J528" s="6"/>
     </row>
-    <row r="529" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I529" s="6"/>
       <c r="J529" s="6"/>
     </row>
-    <row r="530" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I530" s="6"/>
       <c r="J530" s="6"/>
     </row>
-    <row r="531" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I531" s="6"/>
       <c r="J531" s="6"/>
     </row>
-    <row r="532" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I532" s="6"/>
       <c r="J532" s="6"/>
     </row>
-    <row r="533" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I533" s="6"/>
       <c r="J533" s="6"/>
     </row>
-    <row r="534" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I534" s="6"/>
       <c r="J534" s="6"/>
     </row>
-    <row r="535" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I535" s="6"/>
       <c r="J535" s="6"/>
     </row>
-    <row r="536" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I536" s="6"/>
       <c r="J536" s="6"/>
     </row>
-    <row r="537" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I537" s="6"/>
       <c r="J537" s="6"/>
     </row>
-    <row r="538" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I538" s="6"/>
       <c r="J538" s="6"/>
     </row>
-    <row r="539" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I539" s="6"/>
       <c r="J539" s="6"/>
     </row>
-    <row r="540" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I540" s="6"/>
       <c r="J540" s="6"/>
     </row>
-    <row r="541" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I541" s="6"/>
       <c r="J541" s="6"/>
     </row>
-    <row r="542" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I542" s="6"/>
       <c r="J542" s="6"/>
     </row>
-    <row r="543" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I543" s="6"/>
       <c r="J543" s="6"/>
     </row>
-    <row r="544" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I544" s="6"/>
       <c r="J544" s="6"/>
     </row>
-    <row r="545" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I545" s="6"/>
       <c r="J545" s="6"/>
     </row>
-    <row r="546" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I546" s="6"/>
       <c r="J546" s="6"/>
     </row>
-    <row r="547" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I547" s="6"/>
       <c r="J547" s="6"/>
     </row>
-    <row r="548" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I548" s="6"/>
       <c r="J548" s="6"/>
     </row>
-    <row r="549" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I549" s="6"/>
       <c r="J549" s="6"/>
     </row>
-    <row r="550" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I550" s="6"/>
       <c r="J550" s="6"/>
     </row>
-    <row r="551" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I551" s="6"/>
       <c r="J551" s="6"/>
     </row>
-    <row r="552" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I552" s="6"/>
       <c r="J552" s="6"/>
     </row>
-    <row r="553" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I553" s="6"/>
       <c r="J553" s="6"/>
     </row>
-    <row r="554" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I554" s="6"/>
       <c r="J554" s="6"/>
     </row>
-    <row r="555" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I555" s="6"/>
       <c r="J555" s="6"/>
     </row>
-    <row r="556" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I556" s="6"/>
       <c r="J556" s="6"/>
     </row>
-    <row r="557" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I557" s="6"/>
       <c r="J557" s="6"/>
     </row>
-    <row r="558" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I558" s="6"/>
       <c r="J558" s="6"/>
     </row>
-    <row r="559" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I559" s="6"/>
       <c r="J559" s="6"/>
     </row>
-    <row r="560" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I560" s="6"/>
       <c r="J560" s="6"/>
     </row>
-    <row r="561" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I561" s="6"/>
       <c r="J561" s="6"/>
     </row>
-    <row r="562" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I562" s="6"/>
       <c r="J562" s="6"/>
     </row>
-    <row r="563" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I563" s="6"/>
       <c r="J563" s="6"/>
     </row>
-    <row r="564" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I564" s="6"/>
       <c r="J564" s="6"/>
     </row>
-    <row r="565" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I565" s="6"/>
       <c r="J565" s="6"/>
     </row>
-    <row r="566" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I566" s="6"/>
       <c r="J566" s="6"/>
     </row>
-    <row r="567" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I567" s="6"/>
       <c r="J567" s="6"/>
     </row>
-    <row r="568" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I568" s="6"/>
       <c r="J568" s="6"/>
     </row>
-    <row r="569" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I569" s="6"/>
       <c r="J569" s="6"/>
     </row>
-    <row r="570" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I570" s="6"/>
       <c r="J570" s="6"/>
     </row>
-    <row r="571" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I571" s="6"/>
       <c r="J571" s="6"/>
     </row>
-    <row r="572" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I572" s="6"/>
       <c r="J572" s="6"/>
     </row>
-    <row r="573" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I573" s="6"/>
       <c r="J573" s="6"/>
     </row>
-    <row r="574" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I574" s="6"/>
       <c r="J574" s="6"/>
     </row>
-    <row r="575" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I575" s="6"/>
       <c r="J575" s="6"/>
     </row>
-    <row r="576" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I576" s="6"/>
       <c r="J576" s="6"/>
     </row>
-    <row r="577" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I577" s="6"/>
       <c r="J577" s="6"/>
     </row>
-    <row r="578" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I578" s="6"/>
       <c r="J578" s="6"/>
     </row>
-    <row r="579" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I579" s="6"/>
       <c r="J579" s="6"/>
     </row>
-    <row r="580" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I580" s="6"/>
       <c r="J580" s="6"/>
     </row>
-    <row r="581" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I581" s="6"/>
       <c r="J581" s="6"/>
     </row>
-    <row r="582" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I582" s="6"/>
       <c r="J582" s="6"/>
     </row>
-    <row r="583" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I583" s="6"/>
       <c r="J583" s="6"/>
     </row>
-    <row r="584" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I584" s="6"/>
       <c r="J584" s="6"/>
     </row>
-    <row r="585" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I585" s="6"/>
       <c r="J585" s="6"/>
     </row>
-    <row r="586" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I586" s="6"/>
       <c r="J586" s="6"/>
     </row>
-    <row r="587" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I587" s="6"/>
       <c r="J587" s="6"/>
     </row>
-    <row r="588" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I588" s="6"/>
       <c r="J588" s="6"/>
     </row>
-    <row r="589" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I589" s="6"/>
       <c r="J589" s="6"/>
     </row>
-    <row r="590" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I590" s="6"/>
       <c r="J590" s="6"/>
     </row>
-    <row r="591" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I591" s="6"/>
       <c r="J591" s="6"/>
     </row>
-    <row r="592" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I592" s="6"/>
       <c r="J592" s="6"/>
     </row>
-    <row r="593" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I593" s="6"/>
       <c r="J593" s="6"/>
     </row>
-    <row r="594" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I594" s="6"/>
       <c r="J594" s="6"/>
     </row>
-    <row r="595" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I595" s="6"/>
       <c r="J595" s="6"/>
     </row>
-    <row r="596" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I596" s="6"/>
       <c r="J596" s="6"/>
     </row>
-    <row r="597" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I597" s="6"/>
       <c r="J597" s="6"/>
     </row>
-    <row r="598" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I598" s="6"/>
       <c r="J598" s="6"/>
     </row>
-    <row r="599" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I599" s="6"/>
       <c r="J599" s="6"/>
     </row>
-    <row r="600" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I600" s="6"/>
       <c r="J600" s="6"/>
     </row>
-    <row r="601" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I601" s="6"/>
       <c r="J601" s="6"/>
     </row>
-    <row r="602" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I602" s="6"/>
       <c r="J602" s="6"/>
     </row>
-    <row r="603" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I603" s="6"/>
       <c r="J603" s="6"/>
     </row>
-    <row r="604" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I604" s="6"/>
       <c r="J604" s="6"/>
     </row>
-    <row r="605" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I605" s="6"/>
       <c r="J605" s="6"/>
     </row>
-    <row r="606" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I606" s="6"/>
       <c r="J606" s="6"/>
     </row>
-    <row r="607" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I607" s="6"/>
       <c r="J607" s="6"/>
     </row>
-    <row r="608" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I608" s="6"/>
       <c r="J608" s="6"/>
     </row>
-    <row r="609" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I609" s="6"/>
       <c r="J609" s="6"/>
     </row>
-    <row r="610" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I610" s="6"/>
       <c r="J610" s="6"/>
     </row>
-    <row r="611" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I611" s="6"/>
       <c r="J611" s="6"/>
     </row>
-    <row r="612" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I612" s="6"/>
       <c r="J612" s="6"/>
     </row>
-    <row r="613" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I613" s="6"/>
       <c r="J613" s="6"/>
     </row>
-    <row r="614" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I614" s="6"/>
       <c r="J614" s="6"/>
     </row>
-    <row r="615" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I615" s="6"/>
       <c r="J615" s="6"/>
     </row>
-    <row r="616" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I616" s="6"/>
       <c r="J616" s="6"/>
     </row>
-    <row r="617" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I617" s="6"/>
       <c r="J617" s="6"/>
     </row>
-    <row r="618" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I618" s="6"/>
       <c r="J618" s="6"/>
     </row>
-    <row r="619" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I619" s="6"/>
       <c r="J619" s="6"/>
     </row>
-    <row r="620" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I620" s="6"/>
       <c r="J620" s="6"/>
     </row>
-    <row r="621" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I621" s="6"/>
       <c r="J621" s="6"/>
     </row>
-    <row r="622" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I622" s="6"/>
       <c r="J622" s="6"/>
     </row>
-    <row r="623" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I623" s="6"/>
       <c r="J623" s="6"/>
     </row>
-    <row r="624" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I624" s="6"/>
       <c r="J624" s="6"/>
     </row>
-    <row r="625" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I625" s="6"/>
       <c r="J625" s="6"/>
     </row>
-    <row r="626" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I626" s="6"/>
       <c r="J626" s="6"/>
     </row>
-    <row r="627" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I627" s="6"/>
       <c r="J627" s="6"/>
     </row>
-    <row r="628" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I628" s="6"/>
       <c r="J628" s="6"/>
     </row>
-    <row r="629" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I629" s="6"/>
       <c r="J629" s="6"/>
     </row>
-    <row r="630" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I630" s="6"/>
       <c r="J630" s="6"/>
     </row>
-    <row r="631" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I631" s="6"/>
       <c r="J631" s="6"/>
     </row>
-    <row r="632" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I632" s="6"/>
       <c r="J632" s="6"/>
     </row>
-    <row r="633" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I633" s="6"/>
       <c r="J633" s="6"/>
     </row>
-    <row r="634" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I634" s="6"/>
       <c r="J634" s="6"/>
     </row>
-    <row r="635" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I635" s="6"/>
       <c r="J635" s="6"/>
     </row>
-    <row r="636" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I636" s="6"/>
       <c r="J636" s="6"/>
     </row>
-    <row r="637" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I637" s="6"/>
       <c r="J637" s="6"/>
     </row>
-    <row r="638" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I638" s="6"/>
       <c r="J638" s="6"/>
     </row>
-    <row r="639" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I639" s="6"/>
       <c r="J639" s="6"/>
     </row>
-    <row r="640" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I640" s="6"/>
       <c r="J640" s="6"/>
     </row>
-    <row r="641" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I641" s="6"/>
       <c r="J641" s="6"/>
     </row>
-    <row r="642" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I642" s="6"/>
       <c r="J642" s="6"/>
     </row>
-    <row r="643" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I643" s="6"/>
       <c r="J643" s="6"/>
     </row>
-    <row r="644" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I644" s="6"/>
       <c r="J644" s="6"/>
     </row>
-    <row r="645" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I645" s="6"/>
       <c r="J645" s="6"/>
     </row>
-    <row r="646" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I646" s="6"/>
       <c r="J646" s="6"/>
     </row>
-    <row r="647" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I647" s="6"/>
       <c r="J647" s="6"/>
     </row>
-    <row r="648" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I648" s="6"/>
       <c r="J648" s="6"/>
     </row>
-    <row r="649" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I649" s="6"/>
       <c r="J649" s="6"/>
     </row>
-    <row r="650" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I650" s="6"/>
       <c r="J650" s="6"/>
     </row>
-    <row r="651" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I651" s="6"/>
       <c r="J651" s="6"/>
     </row>
-    <row r="652" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I652" s="6"/>
       <c r="J652" s="6"/>
     </row>
-    <row r="653" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I653" s="6"/>
       <c r="J653" s="6"/>
     </row>
-    <row r="654" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I654" s="6"/>
       <c r="J654" s="6"/>
     </row>
-    <row r="655" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I655" s="6"/>
       <c r="J655" s="6"/>
     </row>
-    <row r="656" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I656" s="6"/>
       <c r="J656" s="6"/>
     </row>
-    <row r="657" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I657" s="6"/>
       <c r="J657" s="6"/>
     </row>
-    <row r="658" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I658" s="6"/>
       <c r="J658" s="6"/>
     </row>
-    <row r="659" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I659" s="6"/>
       <c r="J659" s="6"/>
     </row>
-    <row r="660" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I660" s="6"/>
       <c r="J660" s="6"/>
     </row>
-    <row r="661" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I661" s="6"/>
       <c r="J661" s="6"/>
     </row>
-    <row r="662" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I662" s="6"/>
       <c r="J662" s="6"/>
     </row>
-    <row r="663" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I663" s="6"/>
       <c r="J663" s="6"/>
     </row>
-    <row r="664" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I664" s="6"/>
       <c r="J664" s="6"/>
     </row>
-    <row r="665" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I665" s="6"/>
       <c r="J665" s="6"/>
     </row>
-    <row r="666" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I666" s="6"/>
       <c r="J666" s="6"/>
     </row>
-    <row r="667" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I667" s="6"/>
       <c r="J667" s="6"/>
     </row>
-    <row r="668" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I668" s="6"/>
       <c r="J668" s="6"/>
     </row>
-    <row r="669" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I669" s="6"/>
       <c r="J669" s="6"/>
     </row>
-    <row r="670" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I670" s="6"/>
       <c r="J670" s="6"/>
     </row>
-    <row r="671" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I671" s="6"/>
       <c r="J671" s="6"/>
     </row>
-    <row r="672" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I672" s="6"/>
       <c r="J672" s="6"/>
     </row>
-    <row r="673" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I673" s="6"/>
       <c r="J673" s="6"/>
     </row>
-    <row r="674" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I674" s="6"/>
       <c r="J674" s="6"/>
     </row>
-    <row r="675" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I675" s="6"/>
       <c r="J675" s="6"/>
     </row>
-    <row r="676" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I676" s="6"/>
       <c r="J676" s="6"/>
     </row>
-    <row r="677" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I677" s="6"/>
       <c r="J677" s="6"/>
     </row>
-    <row r="678" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I678" s="6"/>
       <c r="J678" s="6"/>
     </row>
-    <row r="679" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I679" s="6"/>
       <c r="J679" s="6"/>
     </row>
-    <row r="680" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I680" s="6"/>
       <c r="J680" s="6"/>
     </row>
-    <row r="681" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I681" s="6"/>
       <c r="J681" s="6"/>
     </row>
-    <row r="682" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I682" s="6"/>
       <c r="J682" s="6"/>
     </row>
-    <row r="683" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I683" s="6"/>
       <c r="J683" s="6"/>
     </row>
-    <row r="684" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I684" s="6"/>
       <c r="J684" s="6"/>
     </row>
-    <row r="685" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I685" s="6"/>
       <c r="J685" s="6"/>
     </row>
-    <row r="686" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I686" s="6"/>
       <c r="J686" s="6"/>
     </row>
-    <row r="687" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I687" s="6"/>
       <c r="J687" s="6"/>
     </row>
-    <row r="688" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I688" s="6"/>
       <c r="J688" s="6"/>
     </row>
-    <row r="689" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I689" s="6"/>
       <c r="J689" s="6"/>
     </row>
-    <row r="690" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I690" s="6"/>
       <c r="J690" s="6"/>
     </row>
-    <row r="691" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I691" s="6"/>
       <c r="J691" s="6"/>
     </row>
-    <row r="692" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I692" s="6"/>
       <c r="J692" s="6"/>
     </row>
-    <row r="693" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I693" s="6"/>
       <c r="J693" s="6"/>
     </row>
-    <row r="694" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I694" s="6"/>
       <c r="J694" s="6"/>
     </row>
-    <row r="695" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I695" s="6"/>
       <c r="J695" s="6"/>
     </row>
-    <row r="696" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I696" s="6"/>
       <c r="J696" s="6"/>
     </row>
-    <row r="697" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I697" s="6"/>
       <c r="J697" s="6"/>
     </row>
-    <row r="698" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I698" s="6"/>
       <c r="J698" s="6"/>
     </row>
-    <row r="699" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I699" s="6"/>
       <c r="J699" s="6"/>
     </row>
-    <row r="700" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I700" s="6"/>
       <c r="J700" s="6"/>
     </row>
-    <row r="701" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I701" s="6"/>
       <c r="J701" s="6"/>
     </row>
-    <row r="702" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I702" s="6"/>
       <c r="J702" s="6"/>
     </row>
-    <row r="703" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I703" s="6"/>
       <c r="J703" s="6"/>
     </row>
-    <row r="704" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I704" s="6"/>
       <c r="J704" s="6"/>
     </row>
-    <row r="705" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I705" s="6"/>
       <c r="J705" s="6"/>
     </row>
-    <row r="706" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I706" s="6"/>
       <c r="J706" s="6"/>
     </row>
-    <row r="707" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I707" s="6"/>
       <c r="J707" s="6"/>
     </row>
-    <row r="708" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I708" s="6"/>
       <c r="J708" s="6"/>
     </row>
-    <row r="709" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I709" s="6"/>
       <c r="J709" s="6"/>
     </row>
-    <row r="710" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I710" s="6"/>
       <c r="J710" s="6"/>
     </row>
-    <row r="711" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I711" s="6"/>
       <c r="J711" s="6"/>
     </row>
-    <row r="712" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I712" s="6"/>
       <c r="J712" s="6"/>
     </row>
-    <row r="713" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I713" s="6"/>
       <c r="J713" s="6"/>
     </row>
-    <row r="714" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I714" s="6"/>
       <c r="J714" s="6"/>
     </row>
-    <row r="715" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I715" s="6"/>
       <c r="J715" s="6"/>
     </row>
-    <row r="716" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I716" s="6"/>
       <c r="J716" s="6"/>
     </row>
-    <row r="717" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I717" s="6"/>
       <c r="J717" s="6"/>
     </row>
-    <row r="718" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I718" s="6"/>
       <c r="J718" s="6"/>
     </row>
-    <row r="719" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I719" s="6"/>
       <c r="J719" s="6"/>
     </row>
-    <row r="720" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I720" s="6"/>
       <c r="J720" s="6"/>
     </row>
-    <row r="721" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I721" s="6"/>
       <c r="J721" s="6"/>
     </row>
-    <row r="722" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I722" s="6"/>
       <c r="J722" s="6"/>
     </row>
-    <row r="723" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I723" s="6"/>
       <c r="J723" s="6"/>
     </row>
-    <row r="724" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I724" s="6"/>
       <c r="J724" s="6"/>
     </row>
-    <row r="725" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I725" s="6"/>
       <c r="J725" s="6"/>
     </row>
-    <row r="726" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I726" s="6"/>
       <c r="J726" s="6"/>
     </row>
-    <row r="727" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I727" s="6"/>
       <c r="J727" s="6"/>
     </row>
-    <row r="728" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I728" s="6"/>
       <c r="J728" s="6"/>
     </row>
-    <row r="729" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I729" s="6"/>
       <c r="J729" s="6"/>
     </row>
-    <row r="730" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I730" s="6"/>
       <c r="J730" s="6"/>
     </row>
-    <row r="731" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I731" s="6"/>
       <c r="J731" s="6"/>
     </row>
-    <row r="732" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I732" s="6"/>
       <c r="J732" s="6"/>
     </row>
-    <row r="733" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I733" s="6"/>
       <c r="J733" s="6"/>
     </row>
-    <row r="734" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I734" s="6"/>
       <c r="J734" s="6"/>
     </row>
-    <row r="735" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I735" s="6"/>
       <c r="J735" s="6"/>
     </row>
-    <row r="736" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I736" s="6"/>
       <c r="J736" s="6"/>
     </row>
-    <row r="737" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I737" s="6"/>
       <c r="J737" s="6"/>
     </row>
-    <row r="738" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I738" s="6"/>
       <c r="J738" s="6"/>
     </row>
-    <row r="739" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I739" s="6"/>
       <c r="J739" s="6"/>
     </row>
-    <row r="740" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I740" s="6"/>
       <c r="J740" s="6"/>
     </row>
-    <row r="741" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I741" s="6"/>
       <c r="J741" s="6"/>
     </row>
-    <row r="742" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I742" s="6"/>
       <c r="J742" s="6"/>
     </row>
-    <row r="743" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I743" s="6"/>
       <c r="J743" s="6"/>
     </row>
-    <row r="744" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I744" s="6"/>
       <c r="J744" s="6"/>
     </row>
-    <row r="745" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I745" s="6"/>
       <c r="J745" s="6"/>
     </row>
-    <row r="746" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I746" s="6"/>
       <c r="J746" s="6"/>
     </row>
-    <row r="747" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I747" s="6"/>
       <c r="J747" s="6"/>
     </row>
-    <row r="748" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I748" s="6"/>
       <c r="J748" s="6"/>
     </row>
-    <row r="749" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I749" s="6"/>
       <c r="J749" s="6"/>
     </row>
-    <row r="750" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I750" s="6"/>
       <c r="J750" s="6"/>
     </row>
-    <row r="751" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I751" s="6"/>
       <c r="J751" s="6"/>
     </row>
-    <row r="752" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I752" s="6"/>
       <c r="J752" s="6"/>
     </row>
-    <row r="753" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I753" s="6"/>
       <c r="J753" s="6"/>
     </row>
-    <row r="754" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I754" s="6"/>
       <c r="J754" s="6"/>
     </row>
-    <row r="755" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I755" s="6"/>
       <c r="J755" s="6"/>
     </row>
-    <row r="756" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I756" s="6"/>
       <c r="J756" s="6"/>
     </row>
-    <row r="757" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I757" s="6"/>
       <c r="J757" s="6"/>
     </row>
-    <row r="758" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I758" s="6"/>
       <c r="J758" s="6"/>
     </row>
-    <row r="759" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I759" s="6"/>
       <c r="J759" s="6"/>
     </row>
-    <row r="760" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I760" s="6"/>
       <c r="J760" s="6"/>
     </row>
-    <row r="761" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I761" s="6"/>
       <c r="J761" s="6"/>
     </row>
-    <row r="762" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I762" s="6"/>
       <c r="J762" s="6"/>
     </row>
-    <row r="763" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I763" s="6"/>
       <c r="J763" s="6"/>
     </row>
-    <row r="764" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I764" s="6"/>
       <c r="J764" s="6"/>
     </row>
-    <row r="765" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I765" s="6"/>
       <c r="J765" s="6"/>
     </row>
-    <row r="766" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I766" s="6"/>
       <c r="J766" s="6"/>
     </row>
-    <row r="767" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I767" s="6"/>
       <c r="J767" s="6"/>
     </row>
-    <row r="768" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I768" s="6"/>
       <c r="J768" s="6"/>
     </row>
-    <row r="769" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I769" s="6"/>
       <c r="J769" s="6"/>
     </row>
-    <row r="770" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I770" s="6"/>
       <c r="J770" s="6"/>
     </row>
-    <row r="771" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I771" s="6"/>
       <c r="J771" s="6"/>
     </row>
-    <row r="772" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I772" s="6"/>
       <c r="J772" s="6"/>
     </row>
-    <row r="773" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I773" s="6"/>
       <c r="J773" s="6"/>
     </row>
-    <row r="774" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I774" s="6"/>
       <c r="J774" s="6"/>
     </row>
-    <row r="775" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I775" s="6"/>
       <c r="J775" s="6"/>
     </row>
-    <row r="776" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I776" s="6"/>
       <c r="J776" s="6"/>
     </row>
-    <row r="777" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I777" s="6"/>
       <c r="J777" s="6"/>
     </row>
-    <row r="778" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I778" s="6"/>
       <c r="J778" s="6"/>
     </row>
-    <row r="779" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I779" s="6"/>
       <c r="J779" s="6"/>
     </row>
-    <row r="780" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I780" s="6"/>
       <c r="J780" s="6"/>
     </row>
-    <row r="781" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I781" s="6"/>
       <c r="J781" s="6"/>
     </row>
-    <row r="782" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I782" s="6"/>
       <c r="J782" s="6"/>
     </row>
-    <row r="783" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I783" s="6"/>
       <c r="J783" s="6"/>
     </row>
-    <row r="784" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I784" s="6"/>
       <c r="J784" s="6"/>
     </row>
-    <row r="785" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I785" s="6"/>
       <c r="J785" s="6"/>
     </row>
-    <row r="786" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I786" s="6"/>
       <c r="J786" s="6"/>
     </row>
-    <row r="787" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I787" s="6"/>
       <c r="J787" s="6"/>
     </row>
-    <row r="788" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I788" s="6"/>
       <c r="J788" s="6"/>
     </row>
-    <row r="789" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I789" s="6"/>
       <c r="J789" s="6"/>
     </row>
-    <row r="790" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I790" s="6"/>
       <c r="J790" s="6"/>
     </row>
-    <row r="791" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I791" s="6"/>
       <c r="J791" s="6"/>
     </row>
-    <row r="792" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I792" s="6"/>
       <c r="J792" s="6"/>
     </row>
-    <row r="793" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I793" s="6"/>
       <c r="J793" s="6"/>
     </row>
-    <row r="794" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I794" s="6"/>
       <c r="J794" s="6"/>
     </row>
-    <row r="795" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I795" s="6"/>
       <c r="J795" s="6"/>
     </row>
-    <row r="796" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I796" s="6"/>
       <c r="J796" s="6"/>
     </row>
-    <row r="797" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I797" s="6"/>
       <c r="J797" s="6"/>
     </row>
-    <row r="798" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I798" s="6"/>
       <c r="J798" s="6"/>
     </row>
-    <row r="799" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I799" s="6"/>
       <c r="J799" s="6"/>
     </row>
-    <row r="800" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I800" s="6"/>
       <c r="J800" s="6"/>
     </row>
-    <row r="801" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I801" s="6"/>
       <c r="J801" s="6"/>
     </row>
-    <row r="802" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I802" s="6"/>
       <c r="J802" s="6"/>
     </row>
-    <row r="803" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I803" s="6"/>
       <c r="J803" s="6"/>
     </row>
-    <row r="804" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I804" s="6"/>
       <c r="J804" s="6"/>
     </row>
-    <row r="805" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I805" s="6"/>
       <c r="J805" s="6"/>
     </row>
-    <row r="806" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I806" s="6"/>
       <c r="J806" s="6"/>
     </row>
-    <row r="807" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I807" s="6"/>
       <c r="J807" s="6"/>
     </row>
-    <row r="808" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I808" s="6"/>
       <c r="J808" s="6"/>
     </row>
-    <row r="809" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I809" s="6"/>
       <c r="J809" s="6"/>
     </row>
-    <row r="810" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I810" s="6"/>
       <c r="J810" s="6"/>
     </row>
-    <row r="811" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I811" s="6"/>
       <c r="J811" s="6"/>
     </row>
-    <row r="812" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I812" s="6"/>
       <c r="J812" s="6"/>
     </row>
-    <row r="813" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I813" s="6"/>
       <c r="J813" s="6"/>
     </row>
-    <row r="814" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I814" s="6"/>
       <c r="J814" s="6"/>
     </row>
-    <row r="815" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I815" s="6"/>
       <c r="J815" s="6"/>
     </row>
-    <row r="816" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I816" s="6"/>
       <c r="J816" s="6"/>
     </row>
-    <row r="817" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I817" s="6"/>
       <c r="J817" s="6"/>
     </row>
-    <row r="818" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I818" s="6"/>
       <c r="J818" s="6"/>
     </row>
-    <row r="819" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I819" s="6"/>
       <c r="J819" s="6"/>
     </row>
-    <row r="820" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I820" s="6"/>
       <c r="J820" s="6"/>
     </row>
-    <row r="821" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I821" s="6"/>
       <c r="J821" s="6"/>
     </row>
-    <row r="822" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I822" s="6"/>
       <c r="J822" s="6"/>
     </row>
-    <row r="823" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I823" s="6"/>
       <c r="J823" s="6"/>
     </row>
-    <row r="824" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I824" s="6"/>
       <c r="J824" s="6"/>
     </row>
-    <row r="825" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I825" s="6"/>
       <c r="J825" s="6"/>
     </row>
-    <row r="826" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I826" s="6"/>
       <c r="J826" s="6"/>
     </row>
-    <row r="827" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I827" s="6"/>
       <c r="J827" s="6"/>
     </row>
-    <row r="828" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I828" s="6"/>
       <c r="J828" s="6"/>
     </row>
-    <row r="829" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I829" s="6"/>
       <c r="J829" s="6"/>
     </row>
-    <row r="830" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I830" s="6"/>
       <c r="J830" s="6"/>
     </row>
-    <row r="831" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I831" s="6"/>
       <c r="J831" s="6"/>
     </row>
-    <row r="832" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I832" s="6"/>
       <c r="J832" s="6"/>
     </row>
-    <row r="833" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I833" s="6"/>
       <c r="J833" s="6"/>
     </row>
-    <row r="834" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I834" s="6"/>
       <c r="J834" s="6"/>
     </row>
-    <row r="835" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I835" s="6"/>
       <c r="J835" s="6"/>
     </row>
-    <row r="836" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I836" s="6"/>
       <c r="J836" s="6"/>
     </row>
-    <row r="837" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I837" s="6"/>
       <c r="J837" s="6"/>
     </row>
-    <row r="838" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I838" s="6"/>
       <c r="J838" s="6"/>
     </row>
-    <row r="839" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I839" s="6"/>
       <c r="J839" s="6"/>
     </row>
-    <row r="840" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I840" s="6"/>
       <c r="J840" s="6"/>
     </row>
-    <row r="841" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I841" s="6"/>
       <c r="J841" s="6"/>
     </row>
-    <row r="842" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I842" s="6"/>
       <c r="J842" s="6"/>
     </row>
-    <row r="843" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I843" s="6"/>
       <c r="J843" s="6"/>
     </row>
-    <row r="844" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I844" s="6"/>
       <c r="J844" s="6"/>
     </row>
-    <row r="845" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I845" s="6"/>
       <c r="J845" s="6"/>
     </row>
-    <row r="846" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I846" s="6"/>
       <c r="J846" s="6"/>
     </row>
-    <row r="847" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I847" s="6"/>
       <c r="J847" s="6"/>
     </row>
-    <row r="848" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I848" s="6"/>
       <c r="J848" s="6"/>
     </row>
-    <row r="849" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I849" s="6"/>
       <c r="J849" s="6"/>
     </row>
-    <row r="850" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I850" s="6"/>
       <c r="J850" s="6"/>
     </row>
-    <row r="851" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I851" s="6"/>
       <c r="J851" s="6"/>
     </row>
-    <row r="852" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I852" s="6"/>
       <c r="J852" s="6"/>
     </row>
-    <row r="853" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I853" s="6"/>
       <c r="J853" s="6"/>
     </row>
-    <row r="854" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I854" s="6"/>
       <c r="J854" s="6"/>
     </row>
-    <row r="855" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I855" s="6"/>
       <c r="J855" s="6"/>
     </row>
-    <row r="856" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I856" s="6"/>
       <c r="J856" s="6"/>
     </row>
-    <row r="857" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I857" s="6"/>
       <c r="J857" s="6"/>
     </row>
-    <row r="858" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I858" s="6"/>
       <c r="J858" s="6"/>
     </row>
-    <row r="859" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I859" s="6"/>
       <c r="J859" s="6"/>
     </row>
-    <row r="860" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I860" s="6"/>
       <c r="J860" s="6"/>
     </row>
-    <row r="861" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I861" s="6"/>
       <c r="J861" s="6"/>
     </row>
-    <row r="862" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I862" s="6"/>
       <c r="J862" s="6"/>
     </row>
-    <row r="863" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I863" s="6"/>
       <c r="J863" s="6"/>
     </row>
-    <row r="864" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I864" s="6"/>
       <c r="J864" s="6"/>
     </row>
-    <row r="865" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I865" s="6"/>
       <c r="J865" s="6"/>
     </row>
-    <row r="866" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I866" s="6"/>
       <c r="J866" s="6"/>
     </row>
-    <row r="867" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I867" s="6"/>
       <c r="J867" s="6"/>
     </row>
-    <row r="868" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I868" s="6"/>
       <c r="J868" s="6"/>
     </row>
-    <row r="869" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I869" s="6"/>
       <c r="J869" s="6"/>
     </row>
-    <row r="870" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I870" s="6"/>
       <c r="J870" s="6"/>
     </row>
-    <row r="871" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I871" s="6"/>
       <c r="J871" s="6"/>
     </row>
-    <row r="872" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I872" s="6"/>
       <c r="J872" s="6"/>
     </row>
-    <row r="873" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I873" s="6"/>
       <c r="J873" s="6"/>
     </row>
-    <row r="874" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I874" s="6"/>
       <c r="J874" s="6"/>
     </row>
-    <row r="875" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I875" s="6"/>
       <c r="J875" s="6"/>
     </row>
-    <row r="876" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I876" s="6"/>
       <c r="J876" s="6"/>
     </row>
-    <row r="877" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I877" s="6"/>
       <c r="J877" s="6"/>
     </row>
-    <row r="878" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I878" s="6"/>
       <c r="J878" s="6"/>
     </row>
-    <row r="879" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I879" s="6"/>
       <c r="J879" s="6"/>
     </row>
-    <row r="880" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I880" s="6"/>
       <c r="J880" s="6"/>
     </row>
-    <row r="881" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I881" s="6"/>
       <c r="J881" s="6"/>
     </row>
-    <row r="882" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I882" s="6"/>
       <c r="J882" s="6"/>
     </row>
-    <row r="883" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I883" s="6"/>
       <c r="J883" s="6"/>
     </row>
-    <row r="884" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I884" s="6"/>
       <c r="J884" s="6"/>
     </row>
-    <row r="885" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I885" s="6"/>
       <c r="J885" s="6"/>
     </row>
-    <row r="886" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I886" s="6"/>
       <c r="J886" s="6"/>
     </row>
-    <row r="887" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I887" s="6"/>
       <c r="J887" s="6"/>
     </row>
-    <row r="888" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I888" s="6"/>
       <c r="J888" s="6"/>
     </row>
-    <row r="889" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I889" s="6"/>
       <c r="J889" s="6"/>
     </row>
-    <row r="890" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I890" s="6"/>
       <c r="J890" s="6"/>
     </row>
-    <row r="891" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I891" s="6"/>
       <c r="J891" s="6"/>
     </row>
-    <row r="892" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I892" s="6"/>
       <c r="J892" s="6"/>
     </row>
-    <row r="893" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I893" s="6"/>
       <c r="J893" s="6"/>
     </row>
-    <row r="894" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I894" s="6"/>
       <c r="J894" s="6"/>
     </row>
-    <row r="895" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I895" s="6"/>
       <c r="J895" s="6"/>
     </row>
-    <row r="896" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I896" s="6"/>
       <c r="J896" s="6"/>
     </row>
-    <row r="897" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I897" s="6"/>
       <c r="J897" s="6"/>
     </row>
-    <row r="898" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I898" s="6"/>
       <c r="J898" s="6"/>
     </row>
-    <row r="899" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I899" s="6"/>
       <c r="J899" s="6"/>
     </row>
-    <row r="900" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I900" s="6"/>
       <c r="J900" s="6"/>
     </row>
-    <row r="901" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I901" s="6"/>
       <c r="J901" s="6"/>
     </row>
-    <row r="902" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I902" s="6"/>
       <c r="J902" s="6"/>
     </row>
-    <row r="903" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I903" s="6"/>
       <c r="J903" s="6"/>
     </row>
-    <row r="904" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I904" s="6"/>
       <c r="J904" s="6"/>
     </row>
-    <row r="905" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I905" s="6"/>
       <c r="J905" s="6"/>
     </row>
-    <row r="906" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I906" s="6"/>
       <c r="J906" s="6"/>
     </row>
-    <row r="907" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I907" s="6"/>
       <c r="J907" s="6"/>
     </row>
-    <row r="908" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I908" s="6"/>
       <c r="J908" s="6"/>
     </row>
-    <row r="909" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I909" s="6"/>
       <c r="J909" s="6"/>
     </row>
-    <row r="910" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I910" s="6"/>
       <c r="J910" s="6"/>
     </row>
-    <row r="911" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I911" s="6"/>
       <c r="J911" s="6"/>
     </row>
-    <row r="912" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I912" s="6"/>
       <c r="J912" s="6"/>
     </row>
-    <row r="913" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I913" s="6"/>
       <c r="J913" s="6"/>
     </row>
-    <row r="914" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I914" s="6"/>
       <c r="J914" s="6"/>
     </row>
-    <row r="915" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I915" s="6"/>
       <c r="J915" s="6"/>
     </row>
-    <row r="916" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I916" s="6"/>
       <c r="J916" s="6"/>
     </row>
-    <row r="917" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I917" s="6"/>
       <c r="J917" s="6"/>
     </row>
-    <row r="918" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I918" s="6"/>
       <c r="J918" s="6"/>
     </row>
-    <row r="919" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I919" s="6"/>
       <c r="J919" s="6"/>
     </row>
-    <row r="920" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I920" s="6"/>
       <c r="J920" s="6"/>
     </row>
-    <row r="921" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I921" s="6"/>
       <c r="J921" s="6"/>
     </row>
-    <row r="922" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I922" s="6"/>
       <c r="J922" s="6"/>
     </row>
-    <row r="923" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I923" s="6"/>
       <c r="J923" s="6"/>
     </row>
-    <row r="924" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I924" s="6"/>
       <c r="J924" s="6"/>
     </row>
-    <row r="925" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I925" s="6"/>
       <c r="J925" s="6"/>
     </row>
-    <row r="926" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I926" s="6"/>
       <c r="J926" s="6"/>
     </row>
-    <row r="927" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I927" s="6"/>
       <c r="J927" s="6"/>
     </row>
-    <row r="928" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I928" s="6"/>
       <c r="J928" s="6"/>
     </row>
-    <row r="929" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I929" s="6"/>
       <c r="J929" s="6"/>
     </row>
-    <row r="930" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I930" s="6"/>
       <c r="J930" s="6"/>
     </row>
-    <row r="931" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I931" s="6"/>
       <c r="J931" s="6"/>
     </row>
-    <row r="932" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I932" s="6"/>
       <c r="J932" s="6"/>
     </row>
-    <row r="933" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I933" s="6"/>
       <c r="J933" s="6"/>
     </row>
-    <row r="934" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I934" s="6"/>
       <c r="J934" s="6"/>
     </row>
-    <row r="935" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I935" s="6"/>
       <c r="J935" s="6"/>
     </row>
-    <row r="936" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I936" s="6"/>
       <c r="J936" s="6"/>
     </row>
-    <row r="937" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I937" s="6"/>
       <c r="J937" s="6"/>
     </row>
-    <row r="938" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I938" s="6"/>
       <c r="J938" s="6"/>
     </row>
-    <row r="939" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I939" s="6"/>
       <c r="J939" s="6"/>
     </row>
-    <row r="940" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I940" s="6"/>
       <c r="J940" s="6"/>
     </row>
-    <row r="941" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I941" s="6"/>
       <c r="J941" s="6"/>
     </row>
-    <row r="942" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I942" s="6"/>
       <c r="J942" s="6"/>
     </row>
-    <row r="943" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I943" s="6"/>
       <c r="J943" s="6"/>
     </row>
-    <row r="944" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I944" s="6"/>
       <c r="J944" s="6"/>
     </row>
-    <row r="945" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I945" s="6"/>
       <c r="J945" s="6"/>
     </row>
-    <row r="946" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I946" s="6"/>
       <c r="J946" s="6"/>
     </row>
-    <row r="947" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I947" s="6"/>
       <c r="J947" s="6"/>
     </row>
-    <row r="948" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I948" s="6"/>
       <c r="J948" s="6"/>
     </row>
-    <row r="949" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I949" s="6"/>
       <c r="J949" s="6"/>
     </row>
-    <row r="950" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I950" s="6"/>
       <c r="J950" s="6"/>
     </row>
-    <row r="951" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I951" s="6"/>
       <c r="J951" s="6"/>
     </row>
-    <row r="952" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I952" s="6"/>
       <c r="J952" s="6"/>
     </row>
-    <row r="953" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I953" s="6"/>
       <c r="J953" s="6"/>
     </row>
-    <row r="954" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I954" s="6"/>
       <c r="J954" s="6"/>
     </row>
-    <row r="955" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I955" s="6"/>
       <c r="J955" s="6"/>
     </row>
-    <row r="956" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I956" s="6"/>
       <c r="J956" s="6"/>
     </row>
-    <row r="957" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I957" s="6"/>
       <c r="J957" s="6"/>
     </row>
-    <row r="958" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I958" s="6"/>
       <c r="J958" s="6"/>
     </row>
-    <row r="959" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I959" s="6"/>
       <c r="J959" s="6"/>
     </row>
-    <row r="960" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I960" s="6"/>
       <c r="J960" s="6"/>
     </row>
-    <row r="961" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I961" s="6"/>
       <c r="J961" s="6"/>
     </row>
-    <row r="962" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I962" s="6"/>
       <c r="J962" s="6"/>
     </row>
-    <row r="963" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I963" s="6"/>
       <c r="J963" s="6"/>
     </row>
-    <row r="964" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I964" s="6"/>
       <c r="J964" s="6"/>
     </row>
-    <row r="965" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I965" s="6"/>
       <c r="J965" s="6"/>
     </row>
-    <row r="966" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I966" s="6"/>
       <c r="J966" s="6"/>
     </row>
-    <row r="967" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I967" s="6"/>
       <c r="J967" s="6"/>
     </row>
-    <row r="968" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I968" s="6"/>
       <c r="J968" s="6"/>
     </row>
-    <row r="969" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I969" s="6"/>
       <c r="J969" s="6"/>
     </row>
-    <row r="970" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I970" s="6"/>
       <c r="J970" s="6"/>
     </row>
-    <row r="971" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I971" s="6"/>
       <c r="J971" s="6"/>
     </row>
-    <row r="972" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I972" s="6"/>
       <c r="J972" s="6"/>
     </row>
-    <row r="973" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I973" s="6"/>
       <c r="J973" s="6"/>
     </row>
-    <row r="974" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I974" s="6"/>
       <c r="J974" s="6"/>
     </row>
-    <row r="975" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I975" s="6"/>
       <c r="J975" s="6"/>
     </row>
-    <row r="976" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I976" s="6"/>
       <c r="J976" s="6"/>
     </row>
-    <row r="977" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I977" s="6"/>
       <c r="J977" s="6"/>
     </row>
-    <row r="978" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I978" s="6"/>
       <c r="J978" s="6"/>
     </row>
-    <row r="979" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I979" s="6"/>
       <c r="J979" s="6"/>
     </row>
-    <row r="980" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I980" s="6"/>
       <c r="J980" s="6"/>
     </row>
-    <row r="981" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I981" s="6"/>
       <c r="J981" s="6"/>
     </row>
-    <row r="982" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I982" s="6"/>
       <c r="J982" s="6"/>
     </row>
-    <row r="983" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I983" s="6"/>
       <c r="J983" s="6"/>
     </row>
-    <row r="984" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I984" s="6"/>
       <c r="J984" s="6"/>
     </row>
-    <row r="985" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I985" s="6"/>
       <c r="J985" s="6"/>
     </row>
-    <row r="986" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I986" s="6"/>
       <c r="J986" s="6"/>
     </row>
-    <row r="987" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I987" s="6"/>
       <c r="J987" s="6"/>
     </row>
-    <row r="988" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I988" s="6"/>
       <c r="J988" s="6"/>
     </row>
-    <row r="989" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I989" s="6"/>
       <c r="J989" s="6"/>
     </row>
-    <row r="990" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I990" s="6"/>
       <c r="J990" s="6"/>
     </row>
-    <row r="991" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I991" s="6"/>
       <c r="J991" s="6"/>
     </row>
-    <row r="992" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I992" s="6"/>
       <c r="J992" s="6"/>
     </row>
-    <row r="993" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I993" s="6"/>
       <c r="J993" s="6"/>
     </row>
-    <row r="994" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I994" s="6"/>
       <c r="J994" s="6"/>
     </row>
-    <row r="995" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I995" s="6"/>
       <c r="J995" s="6"/>
     </row>
-    <row r="996" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I996" s="6"/>
       <c r="J996" s="6"/>
     </row>
-    <row r="997" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I997" s="6"/>
       <c r="J997" s="6"/>
     </row>
-    <row r="998" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I998" s="6"/>
       <c r="J998" s="6"/>
     </row>
-    <row r="999" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I999" s="6"/>
       <c r="J999" s="6"/>
     </row>
-    <row r="1000" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I1000" s="6"/>
       <c r="J1000" s="6"/>
     </row>
-    <row r="1001" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I1001" s="6"/>
       <c r="J1001" s="6"/>
     </row>
@@ -5764,8 +5784,9 @@
     <hyperlink ref="K3" r:id="rId17" xr:uid="{93FFFD5A-3709-4940-A789-D6D2B40D3990}"/>
     <hyperlink ref="K11" r:id="rId18" xr:uid="{76251A76-CA10-495A-B0FA-674D1C0899A9}"/>
     <hyperlink ref="K6" r:id="rId19" xr:uid="{1B4A790B-ABDE-4B3E-B7BE-2BF81DDB51BB}"/>
+    <hyperlink ref="K16" r:id="rId20" xr:uid="{9145519C-068E-4B77-A836-E2080E1C2246}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/Documentation/Rover_Controller_BOM.xlsx
+++ b/Documentation/Rover_Controller_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\Documents\GitHub\RemoteController_Hardware\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\RemoteController_Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B344F3-B1BD-450A-8C4B-E803C70EA662}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646016B3-8373-4838-B640-0948AD877F3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="16220" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MRDT BOM Template.csv" sheetId="1" r:id="rId1"/>
@@ -846,18 +846,18 @@
   </sheetPr>
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="41.81640625" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="11"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="P2" s="22"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -985,7 +985,7 @@
       </c>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1701,7 +1701,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1713,7 +1713,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1725,7 +1725,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1737,7 +1737,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1749,7 +1749,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1761,7 +1761,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1773,7 +1773,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1785,7 +1785,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1797,7 +1797,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1809,7 +1809,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1821,7 +1821,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1833,7 +1833,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1845,7 +1845,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1857,7 +1857,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1869,7 +1869,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1881,7 +1881,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1893,7 +1893,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1905,3857 +1905,3857 @@
       <c r="J39" s="6"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F41" s="9"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F42" s="8"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F43" s="10"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="89" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
     </row>
-    <row r="91" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
     </row>
-    <row r="94" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
     </row>
-    <row r="96" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
     </row>
-    <row r="97" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
     </row>
-    <row r="98" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
     </row>
-    <row r="99" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
     </row>
-    <row r="104" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
     </row>
-    <row r="105" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
     </row>
-    <row r="106" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
     </row>
-    <row r="108" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
     </row>
-    <row r="109" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
     </row>
-    <row r="110" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
     </row>
-    <row r="111" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
     </row>
-    <row r="112" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
     </row>
-    <row r="113" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
     </row>
-    <row r="114" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
     </row>
-    <row r="115" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
     </row>
-    <row r="116" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
     </row>
-    <row r="117" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
     </row>
-    <row r="118" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
     </row>
-    <row r="119" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
     </row>
-    <row r="120" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
     </row>
-    <row r="121" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
     </row>
-    <row r="122" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
     </row>
-    <row r="123" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
     </row>
-    <row r="124" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
     </row>
-    <row r="125" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
     </row>
-    <row r="126" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
     </row>
-    <row r="127" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
     </row>
-    <row r="128" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
     </row>
-    <row r="129" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
     </row>
-    <row r="130" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
     </row>
-    <row r="131" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
     </row>
-    <row r="132" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
     </row>
-    <row r="133" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
     </row>
-    <row r="134" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
     </row>
-    <row r="135" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
     </row>
-    <row r="136" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
     </row>
-    <row r="137" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
     </row>
-    <row r="138" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
     </row>
-    <row r="139" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
     </row>
-    <row r="140" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
     </row>
-    <row r="141" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
     </row>
-    <row r="142" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
     </row>
-    <row r="143" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
     </row>
-    <row r="144" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
     </row>
-    <row r="145" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
     </row>
-    <row r="146" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
     </row>
-    <row r="147" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
     </row>
-    <row r="148" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
     </row>
-    <row r="149" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
     </row>
-    <row r="150" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
     </row>
-    <row r="151" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
     </row>
-    <row r="152" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
     </row>
-    <row r="153" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
     </row>
-    <row r="154" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
     </row>
-    <row r="155" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
     </row>
-    <row r="156" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
     </row>
-    <row r="157" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
     </row>
-    <row r="158" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
     </row>
-    <row r="159" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
     </row>
-    <row r="160" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
     </row>
-    <row r="161" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
     </row>
-    <row r="162" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
     </row>
-    <row r="163" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
     </row>
-    <row r="164" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
     </row>
-    <row r="165" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
     </row>
-    <row r="166" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
     </row>
-    <row r="167" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
     </row>
-    <row r="168" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
     </row>
-    <row r="169" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
     </row>
-    <row r="170" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
     </row>
-    <row r="171" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
     </row>
-    <row r="172" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
     </row>
-    <row r="173" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
     </row>
-    <row r="175" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
     </row>
-    <row r="176" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
     </row>
-    <row r="177" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
     </row>
-    <row r="178" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
     </row>
-    <row r="179" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
     </row>
-    <row r="180" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
     </row>
-    <row r="181" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
     </row>
-    <row r="182" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
     </row>
-    <row r="183" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
     </row>
-    <row r="184" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
     </row>
-    <row r="185" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
     </row>
-    <row r="186" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
     </row>
-    <row r="187" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
     </row>
-    <row r="188" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
     </row>
-    <row r="189" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
     </row>
-    <row r="190" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
     </row>
-    <row r="191" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
     </row>
-    <row r="192" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
     </row>
-    <row r="193" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
     </row>
-    <row r="194" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
     </row>
-    <row r="195" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
     </row>
-    <row r="196" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
     </row>
-    <row r="197" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
     </row>
-    <row r="198" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
     </row>
-    <row r="199" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
     </row>
-    <row r="200" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
     </row>
-    <row r="201" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
     </row>
-    <row r="202" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
     </row>
-    <row r="203" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
     </row>
-    <row r="204" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
     </row>
-    <row r="205" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
     </row>
-    <row r="206" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
     </row>
-    <row r="207" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
     </row>
-    <row r="208" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
     </row>
-    <row r="209" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
     </row>
-    <row r="210" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
     </row>
-    <row r="211" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
     </row>
-    <row r="212" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
     </row>
-    <row r="213" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
     </row>
-    <row r="214" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
     </row>
-    <row r="215" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
     </row>
-    <row r="216" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
     </row>
-    <row r="217" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
     </row>
-    <row r="218" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
     </row>
-    <row r="219" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
     </row>
-    <row r="220" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
     </row>
-    <row r="221" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
     </row>
-    <row r="222" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
     </row>
-    <row r="223" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
     </row>
-    <row r="224" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
     </row>
-    <row r="225" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
     </row>
-    <row r="226" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
     </row>
-    <row r="227" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
     </row>
-    <row r="228" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
     </row>
-    <row r="229" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
     </row>
-    <row r="230" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
     </row>
-    <row r="231" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
     </row>
-    <row r="232" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
     </row>
-    <row r="233" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
     </row>
-    <row r="234" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
     </row>
-    <row r="235" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
     </row>
-    <row r="236" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
     </row>
-    <row r="237" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
     </row>
-    <row r="238" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
     </row>
-    <row r="239" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
     </row>
-    <row r="240" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
     </row>
-    <row r="241" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
     </row>
-    <row r="242" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
     </row>
-    <row r="243" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
     </row>
-    <row r="244" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
     </row>
-    <row r="245" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
     </row>
-    <row r="246" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
     </row>
-    <row r="247" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
     </row>
-    <row r="248" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
     </row>
-    <row r="249" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
     </row>
-    <row r="250" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
     </row>
-    <row r="251" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
     </row>
-    <row r="252" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
     </row>
-    <row r="253" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
     </row>
-    <row r="254" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
     </row>
-    <row r="255" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
     </row>
-    <row r="256" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
     </row>
-    <row r="257" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
     </row>
-    <row r="258" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
     </row>
-    <row r="259" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
     </row>
-    <row r="260" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I260" s="6"/>
       <c r="J260" s="6"/>
     </row>
-    <row r="261" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
     </row>
-    <row r="262" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
     </row>
-    <row r="263" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
     </row>
-    <row r="264" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
     </row>
-    <row r="265" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
     </row>
-    <row r="266" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
     </row>
-    <row r="267" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
     </row>
-    <row r="268" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
     </row>
-    <row r="269" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
     </row>
-    <row r="270" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I270" s="6"/>
       <c r="J270" s="6"/>
     </row>
-    <row r="271" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
     </row>
-    <row r="272" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
     </row>
-    <row r="273" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
     </row>
-    <row r="274" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I274" s="6"/>
       <c r="J274" s="6"/>
     </row>
-    <row r="275" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I275" s="6"/>
       <c r="J275" s="6"/>
     </row>
-    <row r="276" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I276" s="6"/>
       <c r="J276" s="6"/>
     </row>
-    <row r="277" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I277" s="6"/>
       <c r="J277" s="6"/>
     </row>
-    <row r="278" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
     </row>
-    <row r="279" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I279" s="6"/>
       <c r="J279" s="6"/>
     </row>
-    <row r="280" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I280" s="6"/>
       <c r="J280" s="6"/>
     </row>
-    <row r="281" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I281" s="6"/>
       <c r="J281" s="6"/>
     </row>
-    <row r="282" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I282" s="6"/>
       <c r="J282" s="6"/>
     </row>
-    <row r="283" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I283" s="6"/>
       <c r="J283" s="6"/>
     </row>
-    <row r="284" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I284" s="6"/>
       <c r="J284" s="6"/>
     </row>
-    <row r="285" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I285" s="6"/>
       <c r="J285" s="6"/>
     </row>
-    <row r="286" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
     </row>
-    <row r="287" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
     </row>
-    <row r="288" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I288" s="6"/>
       <c r="J288" s="6"/>
     </row>
-    <row r="289" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I289" s="6"/>
       <c r="J289" s="6"/>
     </row>
-    <row r="290" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I290" s="6"/>
       <c r="J290" s="6"/>
     </row>
-    <row r="291" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I291" s="6"/>
       <c r="J291" s="6"/>
     </row>
-    <row r="292" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I292" s="6"/>
       <c r="J292" s="6"/>
     </row>
-    <row r="293" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I293" s="6"/>
       <c r="J293" s="6"/>
     </row>
-    <row r="294" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I294" s="6"/>
       <c r="J294" s="6"/>
     </row>
-    <row r="295" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I295" s="6"/>
       <c r="J295" s="6"/>
     </row>
-    <row r="296" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
     </row>
-    <row r="297" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I297" s="6"/>
       <c r="J297" s="6"/>
     </row>
-    <row r="298" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
     </row>
-    <row r="299" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I299" s="6"/>
       <c r="J299" s="6"/>
     </row>
-    <row r="300" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I300" s="6"/>
       <c r="J300" s="6"/>
     </row>
-    <row r="301" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I301" s="6"/>
       <c r="J301" s="6"/>
     </row>
-    <row r="302" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I302" s="6"/>
       <c r="J302" s="6"/>
     </row>
-    <row r="303" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
     </row>
-    <row r="304" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
     </row>
-    <row r="305" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I305" s="6"/>
       <c r="J305" s="6"/>
     </row>
-    <row r="306" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I306" s="6"/>
       <c r="J306" s="6"/>
     </row>
-    <row r="307" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I307" s="6"/>
       <c r="J307" s="6"/>
     </row>
-    <row r="308" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
     </row>
-    <row r="309" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
     </row>
-    <row r="310" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
     </row>
-    <row r="311" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
     </row>
-    <row r="312" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
     </row>
-    <row r="313" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I313" s="6"/>
       <c r="J313" s="6"/>
     </row>
-    <row r="314" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I314" s="6"/>
       <c r="J314" s="6"/>
     </row>
-    <row r="315" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
     </row>
-    <row r="316" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I316" s="6"/>
       <c r="J316" s="6"/>
     </row>
-    <row r="317" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I317" s="6"/>
       <c r="J317" s="6"/>
     </row>
-    <row r="318" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I318" s="6"/>
       <c r="J318" s="6"/>
     </row>
-    <row r="319" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I319" s="6"/>
       <c r="J319" s="6"/>
     </row>
-    <row r="320" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I320" s="6"/>
       <c r="J320" s="6"/>
     </row>
-    <row r="321" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I321" s="6"/>
       <c r="J321" s="6"/>
     </row>
-    <row r="322" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I322" s="6"/>
       <c r="J322" s="6"/>
     </row>
-    <row r="323" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I323" s="6"/>
       <c r="J323" s="6"/>
     </row>
-    <row r="324" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I324" s="6"/>
       <c r="J324" s="6"/>
     </row>
-    <row r="325" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I325" s="6"/>
       <c r="J325" s="6"/>
     </row>
-    <row r="326" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I326" s="6"/>
       <c r="J326" s="6"/>
     </row>
-    <row r="327" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I327" s="6"/>
       <c r="J327" s="6"/>
     </row>
-    <row r="328" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I328" s="6"/>
       <c r="J328" s="6"/>
     </row>
-    <row r="329" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I329" s="6"/>
       <c r="J329" s="6"/>
     </row>
-    <row r="330" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I330" s="6"/>
       <c r="J330" s="6"/>
     </row>
-    <row r="331" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I331" s="6"/>
       <c r="J331" s="6"/>
     </row>
-    <row r="332" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I332" s="6"/>
       <c r="J332" s="6"/>
     </row>
-    <row r="333" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I333" s="6"/>
       <c r="J333" s="6"/>
     </row>
-    <row r="334" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I334" s="6"/>
       <c r="J334" s="6"/>
     </row>
-    <row r="335" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I335" s="6"/>
       <c r="J335" s="6"/>
     </row>
-    <row r="336" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I336" s="6"/>
       <c r="J336" s="6"/>
     </row>
-    <row r="337" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I337" s="6"/>
       <c r="J337" s="6"/>
     </row>
-    <row r="338" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I338" s="6"/>
       <c r="J338" s="6"/>
     </row>
-    <row r="339" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I339" s="6"/>
       <c r="J339" s="6"/>
     </row>
-    <row r="340" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I340" s="6"/>
       <c r="J340" s="6"/>
     </row>
-    <row r="341" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
     </row>
-    <row r="342" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I342" s="6"/>
       <c r="J342" s="6"/>
     </row>
-    <row r="343" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I343" s="6"/>
       <c r="J343" s="6"/>
     </row>
-    <row r="344" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
     </row>
-    <row r="345" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
     </row>
-    <row r="346" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
     </row>
-    <row r="347" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
     </row>
-    <row r="348" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
     </row>
-    <row r="349" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
     </row>
-    <row r="350" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I350" s="6"/>
       <c r="J350" s="6"/>
     </row>
-    <row r="351" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I351" s="6"/>
       <c r="J351" s="6"/>
     </row>
-    <row r="352" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I352" s="6"/>
       <c r="J352" s="6"/>
     </row>
-    <row r="353" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I353" s="6"/>
       <c r="J353" s="6"/>
     </row>
-    <row r="354" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I354" s="6"/>
       <c r="J354" s="6"/>
     </row>
-    <row r="355" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I355" s="6"/>
       <c r="J355" s="6"/>
     </row>
-    <row r="356" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I356" s="6"/>
       <c r="J356" s="6"/>
     </row>
-    <row r="357" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I357" s="6"/>
       <c r="J357" s="6"/>
     </row>
-    <row r="358" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I358" s="6"/>
       <c r="J358" s="6"/>
     </row>
-    <row r="359" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
     </row>
-    <row r="360" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I360" s="6"/>
       <c r="J360" s="6"/>
     </row>
-    <row r="361" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I361" s="6"/>
       <c r="J361" s="6"/>
     </row>
-    <row r="362" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I362" s="6"/>
       <c r="J362" s="6"/>
     </row>
-    <row r="363" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I363" s="6"/>
       <c r="J363" s="6"/>
     </row>
-    <row r="364" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I364" s="6"/>
       <c r="J364" s="6"/>
     </row>
-    <row r="365" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I365" s="6"/>
       <c r="J365" s="6"/>
     </row>
-    <row r="366" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I366" s="6"/>
       <c r="J366" s="6"/>
     </row>
-    <row r="367" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I367" s="6"/>
       <c r="J367" s="6"/>
     </row>
-    <row r="368" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I368" s="6"/>
       <c r="J368" s="6"/>
     </row>
-    <row r="369" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I369" s="6"/>
       <c r="J369" s="6"/>
     </row>
-    <row r="370" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I370" s="6"/>
       <c r="J370" s="6"/>
     </row>
-    <row r="371" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I371" s="6"/>
       <c r="J371" s="6"/>
     </row>
-    <row r="372" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I372" s="6"/>
       <c r="J372" s="6"/>
     </row>
-    <row r="373" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I373" s="6"/>
       <c r="J373" s="6"/>
     </row>
-    <row r="374" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
     </row>
-    <row r="375" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
     </row>
-    <row r="376" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I376" s="6"/>
       <c r="J376" s="6"/>
     </row>
-    <row r="377" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I377" s="6"/>
       <c r="J377" s="6"/>
     </row>
-    <row r="378" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I378" s="6"/>
       <c r="J378" s="6"/>
     </row>
-    <row r="379" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I379" s="6"/>
       <c r="J379" s="6"/>
     </row>
-    <row r="380" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I380" s="6"/>
       <c r="J380" s="6"/>
     </row>
-    <row r="381" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I381" s="6"/>
       <c r="J381" s="6"/>
     </row>
-    <row r="382" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I382" s="6"/>
       <c r="J382" s="6"/>
     </row>
-    <row r="383" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
     </row>
-    <row r="384" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I384" s="6"/>
       <c r="J384" s="6"/>
     </row>
-    <row r="385" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I385" s="6"/>
       <c r="J385" s="6"/>
     </row>
-    <row r="386" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I386" s="6"/>
       <c r="J386" s="6"/>
     </row>
-    <row r="387" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I387" s="6"/>
       <c r="J387" s="6"/>
     </row>
-    <row r="388" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I388" s="6"/>
       <c r="J388" s="6"/>
     </row>
-    <row r="389" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I389" s="6"/>
       <c r="J389" s="6"/>
     </row>
-    <row r="390" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I390" s="6"/>
       <c r="J390" s="6"/>
     </row>
-    <row r="391" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I391" s="6"/>
       <c r="J391" s="6"/>
     </row>
-    <row r="392" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I392" s="6"/>
       <c r="J392" s="6"/>
     </row>
-    <row r="393" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I393" s="6"/>
       <c r="J393" s="6"/>
     </row>
-    <row r="394" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I394" s="6"/>
       <c r="J394" s="6"/>
     </row>
-    <row r="395" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I395" s="6"/>
       <c r="J395" s="6"/>
     </row>
-    <row r="396" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I396" s="6"/>
       <c r="J396" s="6"/>
     </row>
-    <row r="397" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I397" s="6"/>
       <c r="J397" s="6"/>
     </row>
-    <row r="398" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I398" s="6"/>
       <c r="J398" s="6"/>
     </row>
-    <row r="399" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I399" s="6"/>
       <c r="J399" s="6"/>
     </row>
-    <row r="400" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I400" s="6"/>
       <c r="J400" s="6"/>
     </row>
-    <row r="401" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I401" s="6"/>
       <c r="J401" s="6"/>
     </row>
-    <row r="402" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I402" s="6"/>
       <c r="J402" s="6"/>
     </row>
-    <row r="403" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I403" s="6"/>
       <c r="J403" s="6"/>
     </row>
-    <row r="404" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I404" s="6"/>
       <c r="J404" s="6"/>
     </row>
-    <row r="405" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I405" s="6"/>
       <c r="J405" s="6"/>
     </row>
-    <row r="406" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I406" s="6"/>
       <c r="J406" s="6"/>
     </row>
-    <row r="407" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I407" s="6"/>
       <c r="J407" s="6"/>
     </row>
-    <row r="408" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I408" s="6"/>
       <c r="J408" s="6"/>
     </row>
-    <row r="409" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I409" s="6"/>
       <c r="J409" s="6"/>
     </row>
-    <row r="410" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I410" s="6"/>
       <c r="J410" s="6"/>
     </row>
-    <row r="411" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I411" s="6"/>
       <c r="J411" s="6"/>
     </row>
-    <row r="412" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I412" s="6"/>
       <c r="J412" s="6"/>
     </row>
-    <row r="413" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I413" s="6"/>
       <c r="J413" s="6"/>
     </row>
-    <row r="414" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I414" s="6"/>
       <c r="J414" s="6"/>
     </row>
-    <row r="415" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I415" s="6"/>
       <c r="J415" s="6"/>
     </row>
-    <row r="416" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I416" s="6"/>
       <c r="J416" s="6"/>
     </row>
-    <row r="417" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I417" s="6"/>
       <c r="J417" s="6"/>
     </row>
-    <row r="418" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I418" s="6"/>
       <c r="J418" s="6"/>
     </row>
-    <row r="419" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I419" s="6"/>
       <c r="J419" s="6"/>
     </row>
-    <row r="420" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I420" s="6"/>
       <c r="J420" s="6"/>
     </row>
-    <row r="421" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I421" s="6"/>
       <c r="J421" s="6"/>
     </row>
-    <row r="422" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I422" s="6"/>
       <c r="J422" s="6"/>
     </row>
-    <row r="423" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I423" s="6"/>
       <c r="J423" s="6"/>
     </row>
-    <row r="424" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I424" s="6"/>
       <c r="J424" s="6"/>
     </row>
-    <row r="425" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I425" s="6"/>
       <c r="J425" s="6"/>
     </row>
-    <row r="426" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I426" s="6"/>
       <c r="J426" s="6"/>
     </row>
-    <row r="427" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I427" s="6"/>
       <c r="J427" s="6"/>
     </row>
-    <row r="428" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I428" s="6"/>
       <c r="J428" s="6"/>
     </row>
-    <row r="429" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I429" s="6"/>
       <c r="J429" s="6"/>
     </row>
-    <row r="430" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I430" s="6"/>
       <c r="J430" s="6"/>
     </row>
-    <row r="431" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I431" s="6"/>
       <c r="J431" s="6"/>
     </row>
-    <row r="432" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I432" s="6"/>
       <c r="J432" s="6"/>
     </row>
-    <row r="433" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I433" s="6"/>
       <c r="J433" s="6"/>
     </row>
-    <row r="434" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I434" s="6"/>
       <c r="J434" s="6"/>
     </row>
-    <row r="435" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I435" s="6"/>
       <c r="J435" s="6"/>
     </row>
-    <row r="436" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I436" s="6"/>
       <c r="J436" s="6"/>
     </row>
-    <row r="437" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I437" s="6"/>
       <c r="J437" s="6"/>
     </row>
-    <row r="438" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
     </row>
-    <row r="439" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
     </row>
-    <row r="440" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I440" s="6"/>
       <c r="J440" s="6"/>
     </row>
-    <row r="441" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I441" s="6"/>
       <c r="J441" s="6"/>
     </row>
-    <row r="442" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I442" s="6"/>
       <c r="J442" s="6"/>
     </row>
-    <row r="443" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I443" s="6"/>
       <c r="J443" s="6"/>
     </row>
-    <row r="444" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I444" s="6"/>
       <c r="J444" s="6"/>
     </row>
-    <row r="445" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I445" s="6"/>
       <c r="J445" s="6"/>
     </row>
-    <row r="446" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I446" s="6"/>
       <c r="J446" s="6"/>
     </row>
-    <row r="447" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I447" s="6"/>
       <c r="J447" s="6"/>
     </row>
-    <row r="448" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I448" s="6"/>
       <c r="J448" s="6"/>
     </row>
-    <row r="449" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I449" s="6"/>
       <c r="J449" s="6"/>
     </row>
-    <row r="450" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I450" s="6"/>
       <c r="J450" s="6"/>
     </row>
-    <row r="451" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I451" s="6"/>
       <c r="J451" s="6"/>
     </row>
-    <row r="452" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I452" s="6"/>
       <c r="J452" s="6"/>
     </row>
-    <row r="453" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I453" s="6"/>
       <c r="J453" s="6"/>
     </row>
-    <row r="454" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
     </row>
-    <row r="455" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
     </row>
-    <row r="456" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I456" s="6"/>
       <c r="J456" s="6"/>
     </row>
-    <row r="457" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
     </row>
-    <row r="458" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
     </row>
-    <row r="459" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I459" s="6"/>
       <c r="J459" s="6"/>
     </row>
-    <row r="460" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
     </row>
-    <row r="461" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
     </row>
-    <row r="462" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
     </row>
-    <row r="463" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I463" s="6"/>
       <c r="J463" s="6"/>
     </row>
-    <row r="464" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I464" s="6"/>
       <c r="J464" s="6"/>
     </row>
-    <row r="465" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I465" s="6"/>
       <c r="J465" s="6"/>
     </row>
-    <row r="466" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I466" s="6"/>
       <c r="J466" s="6"/>
     </row>
-    <row r="467" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I467" s="6"/>
       <c r="J467" s="6"/>
     </row>
-    <row r="468" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I468" s="6"/>
       <c r="J468" s="6"/>
     </row>
-    <row r="469" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I469" s="6"/>
       <c r="J469" s="6"/>
     </row>
-    <row r="470" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I470" s="6"/>
       <c r="J470" s="6"/>
     </row>
-    <row r="471" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I471" s="6"/>
       <c r="J471" s="6"/>
     </row>
-    <row r="472" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I472" s="6"/>
       <c r="J472" s="6"/>
     </row>
-    <row r="473" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I473" s="6"/>
       <c r="J473" s="6"/>
     </row>
-    <row r="474" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I474" s="6"/>
       <c r="J474" s="6"/>
     </row>
-    <row r="475" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I475" s="6"/>
       <c r="J475" s="6"/>
     </row>
-    <row r="476" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I476" s="6"/>
       <c r="J476" s="6"/>
     </row>
-    <row r="477" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I477" s="6"/>
       <c r="J477" s="6"/>
     </row>
-    <row r="478" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I478" s="6"/>
       <c r="J478" s="6"/>
     </row>
-    <row r="479" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I479" s="6"/>
       <c r="J479" s="6"/>
     </row>
-    <row r="480" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I480" s="6"/>
       <c r="J480" s="6"/>
     </row>
-    <row r="481" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I481" s="6"/>
       <c r="J481" s="6"/>
     </row>
-    <row r="482" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I482" s="6"/>
       <c r="J482" s="6"/>
     </row>
-    <row r="483" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I483" s="6"/>
       <c r="J483" s="6"/>
     </row>
-    <row r="484" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I484" s="6"/>
       <c r="J484" s="6"/>
     </row>
-    <row r="485" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I485" s="6"/>
       <c r="J485" s="6"/>
     </row>
-    <row r="486" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I486" s="6"/>
       <c r="J486" s="6"/>
     </row>
-    <row r="487" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I487" s="6"/>
       <c r="J487" s="6"/>
     </row>
-    <row r="488" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I488" s="6"/>
       <c r="J488" s="6"/>
     </row>
-    <row r="489" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I489" s="6"/>
       <c r="J489" s="6"/>
     </row>
-    <row r="490" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I490" s="6"/>
       <c r="J490" s="6"/>
     </row>
-    <row r="491" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I491" s="6"/>
       <c r="J491" s="6"/>
     </row>
-    <row r="492" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I492" s="6"/>
       <c r="J492" s="6"/>
     </row>
-    <row r="493" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I493" s="6"/>
       <c r="J493" s="6"/>
     </row>
-    <row r="494" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I494" s="6"/>
       <c r="J494" s="6"/>
     </row>
-    <row r="495" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I495" s="6"/>
       <c r="J495" s="6"/>
     </row>
-    <row r="496" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I496" s="6"/>
       <c r="J496" s="6"/>
     </row>
-    <row r="497" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I497" s="6"/>
       <c r="J497" s="6"/>
     </row>
-    <row r="498" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I498" s="6"/>
       <c r="J498" s="6"/>
     </row>
-    <row r="499" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I499" s="6"/>
       <c r="J499" s="6"/>
     </row>
-    <row r="500" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I500" s="6"/>
       <c r="J500" s="6"/>
     </row>
-    <row r="501" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I501" s="6"/>
       <c r="J501" s="6"/>
     </row>
-    <row r="502" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I502" s="6"/>
       <c r="J502" s="6"/>
     </row>
-    <row r="503" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I503" s="6"/>
       <c r="J503" s="6"/>
     </row>
-    <row r="504" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I504" s="6"/>
       <c r="J504" s="6"/>
     </row>
-    <row r="505" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I505" s="6"/>
       <c r="J505" s="6"/>
     </row>
-    <row r="506" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I506" s="6"/>
       <c r="J506" s="6"/>
     </row>
-    <row r="507" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I507" s="6"/>
       <c r="J507" s="6"/>
     </row>
-    <row r="508" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I508" s="6"/>
       <c r="J508" s="6"/>
     </row>
-    <row r="509" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I509" s="6"/>
       <c r="J509" s="6"/>
     </row>
-    <row r="510" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I510" s="6"/>
       <c r="J510" s="6"/>
     </row>
-    <row r="511" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I511" s="6"/>
       <c r="J511" s="6"/>
     </row>
-    <row r="512" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I512" s="6"/>
       <c r="J512" s="6"/>
     </row>
-    <row r="513" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I513" s="6"/>
       <c r="J513" s="6"/>
     </row>
-    <row r="514" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I514" s="6"/>
       <c r="J514" s="6"/>
     </row>
-    <row r="515" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I515" s="6"/>
       <c r="J515" s="6"/>
     </row>
-    <row r="516" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I516" s="6"/>
       <c r="J516" s="6"/>
     </row>
-    <row r="517" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I517" s="6"/>
       <c r="J517" s="6"/>
     </row>
-    <row r="518" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I518" s="6"/>
       <c r="J518" s="6"/>
     </row>
-    <row r="519" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I519" s="6"/>
       <c r="J519" s="6"/>
     </row>
-    <row r="520" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I520" s="6"/>
       <c r="J520" s="6"/>
     </row>
-    <row r="521" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I521" s="6"/>
       <c r="J521" s="6"/>
     </row>
-    <row r="522" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I522" s="6"/>
       <c r="J522" s="6"/>
     </row>
-    <row r="523" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I523" s="6"/>
       <c r="J523" s="6"/>
     </row>
-    <row r="524" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I524" s="6"/>
       <c r="J524" s="6"/>
     </row>
-    <row r="525" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I525" s="6"/>
       <c r="J525" s="6"/>
     </row>
-    <row r="526" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I526" s="6"/>
       <c r="J526" s="6"/>
     </row>
-    <row r="527" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I527" s="6"/>
       <c r="J527" s="6"/>
     </row>
-    <row r="528" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I528" s="6"/>
       <c r="J528" s="6"/>
     </row>
-    <row r="529" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I529" s="6"/>
       <c r="J529" s="6"/>
     </row>
-    <row r="530" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I530" s="6"/>
       <c r="J530" s="6"/>
     </row>
-    <row r="531" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I531" s="6"/>
       <c r="J531" s="6"/>
     </row>
-    <row r="532" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I532" s="6"/>
       <c r="J532" s="6"/>
     </row>
-    <row r="533" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I533" s="6"/>
       <c r="J533" s="6"/>
     </row>
-    <row r="534" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I534" s="6"/>
       <c r="J534" s="6"/>
     </row>
-    <row r="535" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I535" s="6"/>
       <c r="J535" s="6"/>
     </row>
-    <row r="536" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I536" s="6"/>
       <c r="J536" s="6"/>
     </row>
-    <row r="537" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I537" s="6"/>
       <c r="J537" s="6"/>
     </row>
-    <row r="538" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I538" s="6"/>
       <c r="J538" s="6"/>
     </row>
-    <row r="539" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I539" s="6"/>
       <c r="J539" s="6"/>
     </row>
-    <row r="540" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I540" s="6"/>
       <c r="J540" s="6"/>
     </row>
-    <row r="541" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I541" s="6"/>
       <c r="J541" s="6"/>
     </row>
-    <row r="542" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I542" s="6"/>
       <c r="J542" s="6"/>
     </row>
-    <row r="543" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I543" s="6"/>
       <c r="J543" s="6"/>
     </row>
-    <row r="544" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I544" s="6"/>
       <c r="J544" s="6"/>
     </row>
-    <row r="545" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I545" s="6"/>
       <c r="J545" s="6"/>
     </row>
-    <row r="546" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I546" s="6"/>
       <c r="J546" s="6"/>
     </row>
-    <row r="547" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I547" s="6"/>
       <c r="J547" s="6"/>
     </row>
-    <row r="548" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I548" s="6"/>
       <c r="J548" s="6"/>
     </row>
-    <row r="549" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I549" s="6"/>
       <c r="J549" s="6"/>
     </row>
-    <row r="550" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I550" s="6"/>
       <c r="J550" s="6"/>
     </row>
-    <row r="551" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I551" s="6"/>
       <c r="J551" s="6"/>
     </row>
-    <row r="552" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I552" s="6"/>
       <c r="J552" s="6"/>
     </row>
-    <row r="553" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I553" s="6"/>
       <c r="J553" s="6"/>
     </row>
-    <row r="554" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I554" s="6"/>
       <c r="J554" s="6"/>
     </row>
-    <row r="555" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I555" s="6"/>
       <c r="J555" s="6"/>
     </row>
-    <row r="556" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I556" s="6"/>
       <c r="J556" s="6"/>
     </row>
-    <row r="557" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I557" s="6"/>
       <c r="J557" s="6"/>
     </row>
-    <row r="558" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I558" s="6"/>
       <c r="J558" s="6"/>
     </row>
-    <row r="559" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I559" s="6"/>
       <c r="J559" s="6"/>
     </row>
-    <row r="560" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I560" s="6"/>
       <c r="J560" s="6"/>
     </row>
-    <row r="561" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I561" s="6"/>
       <c r="J561" s="6"/>
     </row>
-    <row r="562" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I562" s="6"/>
       <c r="J562" s="6"/>
     </row>
-    <row r="563" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I563" s="6"/>
       <c r="J563" s="6"/>
     </row>
-    <row r="564" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I564" s="6"/>
       <c r="J564" s="6"/>
     </row>
-    <row r="565" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I565" s="6"/>
       <c r="J565" s="6"/>
     </row>
-    <row r="566" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I566" s="6"/>
       <c r="J566" s="6"/>
     </row>
-    <row r="567" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I567" s="6"/>
       <c r="J567" s="6"/>
     </row>
-    <row r="568" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I568" s="6"/>
       <c r="J568" s="6"/>
     </row>
-    <row r="569" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I569" s="6"/>
       <c r="J569" s="6"/>
     </row>
-    <row r="570" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I570" s="6"/>
       <c r="J570" s="6"/>
     </row>
-    <row r="571" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I571" s="6"/>
       <c r="J571" s="6"/>
     </row>
-    <row r="572" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I572" s="6"/>
       <c r="J572" s="6"/>
     </row>
-    <row r="573" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I573" s="6"/>
       <c r="J573" s="6"/>
     </row>
-    <row r="574" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I574" s="6"/>
       <c r="J574" s="6"/>
     </row>
-    <row r="575" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I575" s="6"/>
       <c r="J575" s="6"/>
     </row>
-    <row r="576" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I576" s="6"/>
       <c r="J576" s="6"/>
     </row>
-    <row r="577" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I577" s="6"/>
       <c r="J577" s="6"/>
     </row>
-    <row r="578" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I578" s="6"/>
       <c r="J578" s="6"/>
     </row>
-    <row r="579" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I579" s="6"/>
       <c r="J579" s="6"/>
     </row>
-    <row r="580" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I580" s="6"/>
       <c r="J580" s="6"/>
     </row>
-    <row r="581" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I581" s="6"/>
       <c r="J581" s="6"/>
     </row>
-    <row r="582" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I582" s="6"/>
       <c r="J582" s="6"/>
     </row>
-    <row r="583" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I583" s="6"/>
       <c r="J583" s="6"/>
     </row>
-    <row r="584" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I584" s="6"/>
       <c r="J584" s="6"/>
     </row>
-    <row r="585" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I585" s="6"/>
       <c r="J585" s="6"/>
     </row>
-    <row r="586" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I586" s="6"/>
       <c r="J586" s="6"/>
     </row>
-    <row r="587" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I587" s="6"/>
       <c r="J587" s="6"/>
     </row>
-    <row r="588" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I588" s="6"/>
       <c r="J588" s="6"/>
     </row>
-    <row r="589" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I589" s="6"/>
       <c r="J589" s="6"/>
     </row>
-    <row r="590" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I590" s="6"/>
       <c r="J590" s="6"/>
     </row>
-    <row r="591" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I591" s="6"/>
       <c r="J591" s="6"/>
     </row>
-    <row r="592" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I592" s="6"/>
       <c r="J592" s="6"/>
     </row>
-    <row r="593" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I593" s="6"/>
       <c r="J593" s="6"/>
     </row>
-    <row r="594" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I594" s="6"/>
       <c r="J594" s="6"/>
     </row>
-    <row r="595" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I595" s="6"/>
       <c r="J595" s="6"/>
     </row>
-    <row r="596" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I596" s="6"/>
       <c r="J596" s="6"/>
     </row>
-    <row r="597" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I597" s="6"/>
       <c r="J597" s="6"/>
     </row>
-    <row r="598" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I598" s="6"/>
       <c r="J598" s="6"/>
     </row>
-    <row r="599" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I599" s="6"/>
       <c r="J599" s="6"/>
     </row>
-    <row r="600" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I600" s="6"/>
       <c r="J600" s="6"/>
     </row>
-    <row r="601" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I601" s="6"/>
       <c r="J601" s="6"/>
     </row>
-    <row r="602" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I602" s="6"/>
       <c r="J602" s="6"/>
     </row>
-    <row r="603" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I603" s="6"/>
       <c r="J603" s="6"/>
     </row>
-    <row r="604" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I604" s="6"/>
       <c r="J604" s="6"/>
     </row>
-    <row r="605" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I605" s="6"/>
       <c r="J605" s="6"/>
     </row>
-    <row r="606" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I606" s="6"/>
       <c r="J606" s="6"/>
     </row>
-    <row r="607" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I607" s="6"/>
       <c r="J607" s="6"/>
     </row>
-    <row r="608" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I608" s="6"/>
       <c r="J608" s="6"/>
     </row>
-    <row r="609" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I609" s="6"/>
       <c r="J609" s="6"/>
     </row>
-    <row r="610" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I610" s="6"/>
       <c r="J610" s="6"/>
     </row>
-    <row r="611" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I611" s="6"/>
       <c r="J611" s="6"/>
     </row>
-    <row r="612" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I612" s="6"/>
       <c r="J612" s="6"/>
     </row>
-    <row r="613" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I613" s="6"/>
       <c r="J613" s="6"/>
     </row>
-    <row r="614" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I614" s="6"/>
       <c r="J614" s="6"/>
     </row>
-    <row r="615" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I615" s="6"/>
       <c r="J615" s="6"/>
     </row>
-    <row r="616" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I616" s="6"/>
       <c r="J616" s="6"/>
     </row>
-    <row r="617" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I617" s="6"/>
       <c r="J617" s="6"/>
     </row>
-    <row r="618" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I618" s="6"/>
       <c r="J618" s="6"/>
     </row>
-    <row r="619" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I619" s="6"/>
       <c r="J619" s="6"/>
     </row>
-    <row r="620" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I620" s="6"/>
       <c r="J620" s="6"/>
     </row>
-    <row r="621" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I621" s="6"/>
       <c r="J621" s="6"/>
     </row>
-    <row r="622" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I622" s="6"/>
       <c r="J622" s="6"/>
     </row>
-    <row r="623" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I623" s="6"/>
       <c r="J623" s="6"/>
     </row>
-    <row r="624" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I624" s="6"/>
       <c r="J624" s="6"/>
     </row>
-    <row r="625" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I625" s="6"/>
       <c r="J625" s="6"/>
     </row>
-    <row r="626" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I626" s="6"/>
       <c r="J626" s="6"/>
     </row>
-    <row r="627" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I627" s="6"/>
       <c r="J627" s="6"/>
     </row>
-    <row r="628" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I628" s="6"/>
       <c r="J628" s="6"/>
     </row>
-    <row r="629" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I629" s="6"/>
       <c r="J629" s="6"/>
     </row>
-    <row r="630" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I630" s="6"/>
       <c r="J630" s="6"/>
     </row>
-    <row r="631" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I631" s="6"/>
       <c r="J631" s="6"/>
     </row>
-    <row r="632" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I632" s="6"/>
       <c r="J632" s="6"/>
     </row>
-    <row r="633" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I633" s="6"/>
       <c r="J633" s="6"/>
     </row>
-    <row r="634" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I634" s="6"/>
       <c r="J634" s="6"/>
     </row>
-    <row r="635" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I635" s="6"/>
       <c r="J635" s="6"/>
     </row>
-    <row r="636" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I636" s="6"/>
       <c r="J636" s="6"/>
     </row>
-    <row r="637" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I637" s="6"/>
       <c r="J637" s="6"/>
     </row>
-    <row r="638" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I638" s="6"/>
       <c r="J638" s="6"/>
     </row>
-    <row r="639" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I639" s="6"/>
       <c r="J639" s="6"/>
     </row>
-    <row r="640" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I640" s="6"/>
       <c r="J640" s="6"/>
     </row>
-    <row r="641" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I641" s="6"/>
       <c r="J641" s="6"/>
     </row>
-    <row r="642" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I642" s="6"/>
       <c r="J642" s="6"/>
     </row>
-    <row r="643" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I643" s="6"/>
       <c r="J643" s="6"/>
     </row>
-    <row r="644" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I644" s="6"/>
       <c r="J644" s="6"/>
     </row>
-    <row r="645" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I645" s="6"/>
       <c r="J645" s="6"/>
     </row>
-    <row r="646" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I646" s="6"/>
       <c r="J646" s="6"/>
     </row>
-    <row r="647" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I647" s="6"/>
       <c r="J647" s="6"/>
     </row>
-    <row r="648" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I648" s="6"/>
       <c r="J648" s="6"/>
     </row>
-    <row r="649" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I649" s="6"/>
       <c r="J649" s="6"/>
     </row>
-    <row r="650" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I650" s="6"/>
       <c r="J650" s="6"/>
     </row>
-    <row r="651" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I651" s="6"/>
       <c r="J651" s="6"/>
     </row>
-    <row r="652" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I652" s="6"/>
       <c r="J652" s="6"/>
     </row>
-    <row r="653" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I653" s="6"/>
       <c r="J653" s="6"/>
     </row>
-    <row r="654" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I654" s="6"/>
       <c r="J654" s="6"/>
     </row>
-    <row r="655" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I655" s="6"/>
       <c r="J655" s="6"/>
     </row>
-    <row r="656" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I656" s="6"/>
       <c r="J656" s="6"/>
     </row>
-    <row r="657" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I657" s="6"/>
       <c r="J657" s="6"/>
     </row>
-    <row r="658" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I658" s="6"/>
       <c r="J658" s="6"/>
     </row>
-    <row r="659" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I659" s="6"/>
       <c r="J659" s="6"/>
     </row>
-    <row r="660" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I660" s="6"/>
       <c r="J660" s="6"/>
     </row>
-    <row r="661" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I661" s="6"/>
       <c r="J661" s="6"/>
     </row>
-    <row r="662" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I662" s="6"/>
       <c r="J662" s="6"/>
     </row>
-    <row r="663" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I663" s="6"/>
       <c r="J663" s="6"/>
     </row>
-    <row r="664" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I664" s="6"/>
       <c r="J664" s="6"/>
     </row>
-    <row r="665" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I665" s="6"/>
       <c r="J665" s="6"/>
     </row>
-    <row r="666" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I666" s="6"/>
       <c r="J666" s="6"/>
     </row>
-    <row r="667" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I667" s="6"/>
       <c r="J667" s="6"/>
     </row>
-    <row r="668" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I668" s="6"/>
       <c r="J668" s="6"/>
     </row>
-    <row r="669" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I669" s="6"/>
       <c r="J669" s="6"/>
     </row>
-    <row r="670" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I670" s="6"/>
       <c r="J670" s="6"/>
     </row>
-    <row r="671" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I671" s="6"/>
       <c r="J671" s="6"/>
     </row>
-    <row r="672" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I672" s="6"/>
       <c r="J672" s="6"/>
     </row>
-    <row r="673" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I673" s="6"/>
       <c r="J673" s="6"/>
     </row>
-    <row r="674" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I674" s="6"/>
       <c r="J674" s="6"/>
     </row>
-    <row r="675" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I675" s="6"/>
       <c r="J675" s="6"/>
     </row>
-    <row r="676" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I676" s="6"/>
       <c r="J676" s="6"/>
     </row>
-    <row r="677" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I677" s="6"/>
       <c r="J677" s="6"/>
     </row>
-    <row r="678" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I678" s="6"/>
       <c r="J678" s="6"/>
     </row>
-    <row r="679" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I679" s="6"/>
       <c r="J679" s="6"/>
     </row>
-    <row r="680" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I680" s="6"/>
       <c r="J680" s="6"/>
     </row>
-    <row r="681" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I681" s="6"/>
       <c r="J681" s="6"/>
     </row>
-    <row r="682" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I682" s="6"/>
       <c r="J682" s="6"/>
     </row>
-    <row r="683" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I683" s="6"/>
       <c r="J683" s="6"/>
     </row>
-    <row r="684" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I684" s="6"/>
       <c r="J684" s="6"/>
     </row>
-    <row r="685" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I685" s="6"/>
       <c r="J685" s="6"/>
     </row>
-    <row r="686" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I686" s="6"/>
       <c r="J686" s="6"/>
     </row>
-    <row r="687" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I687" s="6"/>
       <c r="J687" s="6"/>
     </row>
-    <row r="688" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I688" s="6"/>
       <c r="J688" s="6"/>
     </row>
-    <row r="689" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I689" s="6"/>
       <c r="J689" s="6"/>
     </row>
-    <row r="690" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I690" s="6"/>
       <c r="J690" s="6"/>
     </row>
-    <row r="691" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I691" s="6"/>
       <c r="J691" s="6"/>
     </row>
-    <row r="692" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I692" s="6"/>
       <c r="J692" s="6"/>
     </row>
-    <row r="693" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I693" s="6"/>
       <c r="J693" s="6"/>
     </row>
-    <row r="694" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I694" s="6"/>
       <c r="J694" s="6"/>
     </row>
-    <row r="695" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I695" s="6"/>
       <c r="J695" s="6"/>
     </row>
-    <row r="696" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I696" s="6"/>
       <c r="J696" s="6"/>
     </row>
-    <row r="697" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I697" s="6"/>
       <c r="J697" s="6"/>
     </row>
-    <row r="698" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I698" s="6"/>
       <c r="J698" s="6"/>
     </row>
-    <row r="699" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I699" s="6"/>
       <c r="J699" s="6"/>
     </row>
-    <row r="700" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I700" s="6"/>
       <c r="J700" s="6"/>
     </row>
-    <row r="701" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I701" s="6"/>
       <c r="J701" s="6"/>
     </row>
-    <row r="702" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I702" s="6"/>
       <c r="J702" s="6"/>
     </row>
-    <row r="703" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I703" s="6"/>
       <c r="J703" s="6"/>
     </row>
-    <row r="704" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I704" s="6"/>
       <c r="J704" s="6"/>
     </row>
-    <row r="705" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I705" s="6"/>
       <c r="J705" s="6"/>
     </row>
-    <row r="706" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I706" s="6"/>
       <c r="J706" s="6"/>
     </row>
-    <row r="707" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I707" s="6"/>
       <c r="J707" s="6"/>
     </row>
-    <row r="708" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I708" s="6"/>
       <c r="J708" s="6"/>
     </row>
-    <row r="709" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I709" s="6"/>
       <c r="J709" s="6"/>
     </row>
-    <row r="710" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I710" s="6"/>
       <c r="J710" s="6"/>
     </row>
-    <row r="711" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I711" s="6"/>
       <c r="J711" s="6"/>
     </row>
-    <row r="712" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I712" s="6"/>
       <c r="J712" s="6"/>
     </row>
-    <row r="713" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I713" s="6"/>
       <c r="J713" s="6"/>
     </row>
-    <row r="714" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I714" s="6"/>
       <c r="J714" s="6"/>
     </row>
-    <row r="715" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I715" s="6"/>
       <c r="J715" s="6"/>
     </row>
-    <row r="716" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I716" s="6"/>
       <c r="J716" s="6"/>
     </row>
-    <row r="717" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I717" s="6"/>
       <c r="J717" s="6"/>
     </row>
-    <row r="718" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I718" s="6"/>
       <c r="J718" s="6"/>
     </row>
-    <row r="719" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I719" s="6"/>
       <c r="J719" s="6"/>
     </row>
-    <row r="720" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I720" s="6"/>
       <c r="J720" s="6"/>
     </row>
-    <row r="721" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I721" s="6"/>
       <c r="J721" s="6"/>
     </row>
-    <row r="722" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I722" s="6"/>
       <c r="J722" s="6"/>
     </row>
-    <row r="723" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I723" s="6"/>
       <c r="J723" s="6"/>
     </row>
-    <row r="724" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I724" s="6"/>
       <c r="J724" s="6"/>
     </row>
-    <row r="725" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I725" s="6"/>
       <c r="J725" s="6"/>
     </row>
-    <row r="726" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I726" s="6"/>
       <c r="J726" s="6"/>
     </row>
-    <row r="727" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I727" s="6"/>
       <c r="J727" s="6"/>
     </row>
-    <row r="728" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I728" s="6"/>
       <c r="J728" s="6"/>
     </row>
-    <row r="729" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I729" s="6"/>
       <c r="J729" s="6"/>
     </row>
-    <row r="730" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I730" s="6"/>
       <c r="J730" s="6"/>
     </row>
-    <row r="731" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I731" s="6"/>
       <c r="J731" s="6"/>
     </row>
-    <row r="732" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I732" s="6"/>
       <c r="J732" s="6"/>
     </row>
-    <row r="733" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I733" s="6"/>
       <c r="J733" s="6"/>
     </row>
-    <row r="734" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I734" s="6"/>
       <c r="J734" s="6"/>
     </row>
-    <row r="735" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I735" s="6"/>
       <c r="J735" s="6"/>
     </row>
-    <row r="736" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I736" s="6"/>
       <c r="J736" s="6"/>
     </row>
-    <row r="737" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I737" s="6"/>
       <c r="J737" s="6"/>
     </row>
-    <row r="738" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I738" s="6"/>
       <c r="J738" s="6"/>
     </row>
-    <row r="739" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I739" s="6"/>
       <c r="J739" s="6"/>
     </row>
-    <row r="740" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I740" s="6"/>
       <c r="J740" s="6"/>
     </row>
-    <row r="741" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I741" s="6"/>
       <c r="J741" s="6"/>
     </row>
-    <row r="742" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I742" s="6"/>
       <c r="J742" s="6"/>
     </row>
-    <row r="743" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I743" s="6"/>
       <c r="J743" s="6"/>
     </row>
-    <row r="744" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I744" s="6"/>
       <c r="J744" s="6"/>
     </row>
-    <row r="745" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I745" s="6"/>
       <c r="J745" s="6"/>
     </row>
-    <row r="746" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I746" s="6"/>
       <c r="J746" s="6"/>
     </row>
-    <row r="747" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I747" s="6"/>
       <c r="J747" s="6"/>
     </row>
-    <row r="748" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I748" s="6"/>
       <c r="J748" s="6"/>
     </row>
-    <row r="749" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I749" s="6"/>
       <c r="J749" s="6"/>
     </row>
-    <row r="750" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I750" s="6"/>
       <c r="J750" s="6"/>
     </row>
-    <row r="751" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I751" s="6"/>
       <c r="J751" s="6"/>
     </row>
-    <row r="752" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I752" s="6"/>
       <c r="J752" s="6"/>
     </row>
-    <row r="753" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I753" s="6"/>
       <c r="J753" s="6"/>
     </row>
-    <row r="754" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I754" s="6"/>
       <c r="J754" s="6"/>
     </row>
-    <row r="755" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I755" s="6"/>
       <c r="J755" s="6"/>
     </row>
-    <row r="756" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I756" s="6"/>
       <c r="J756" s="6"/>
     </row>
-    <row r="757" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I757" s="6"/>
       <c r="J757" s="6"/>
     </row>
-    <row r="758" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I758" s="6"/>
       <c r="J758" s="6"/>
     </row>
-    <row r="759" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I759" s="6"/>
       <c r="J759" s="6"/>
     </row>
-    <row r="760" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I760" s="6"/>
       <c r="J760" s="6"/>
     </row>
-    <row r="761" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I761" s="6"/>
       <c r="J761" s="6"/>
     </row>
-    <row r="762" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I762" s="6"/>
       <c r="J762" s="6"/>
     </row>
-    <row r="763" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I763" s="6"/>
       <c r="J763" s="6"/>
     </row>
-    <row r="764" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I764" s="6"/>
       <c r="J764" s="6"/>
     </row>
-    <row r="765" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I765" s="6"/>
       <c r="J765" s="6"/>
     </row>
-    <row r="766" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I766" s="6"/>
       <c r="J766" s="6"/>
     </row>
-    <row r="767" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I767" s="6"/>
       <c r="J767" s="6"/>
     </row>
-    <row r="768" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I768" s="6"/>
       <c r="J768" s="6"/>
     </row>
-    <row r="769" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I769" s="6"/>
       <c r="J769" s="6"/>
     </row>
-    <row r="770" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I770" s="6"/>
       <c r="J770" s="6"/>
     </row>
-    <row r="771" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I771" s="6"/>
       <c r="J771" s="6"/>
     </row>
-    <row r="772" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I772" s="6"/>
       <c r="J772" s="6"/>
     </row>
-    <row r="773" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I773" s="6"/>
       <c r="J773" s="6"/>
     </row>
-    <row r="774" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I774" s="6"/>
       <c r="J774" s="6"/>
     </row>
-    <row r="775" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I775" s="6"/>
       <c r="J775" s="6"/>
     </row>
-    <row r="776" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I776" s="6"/>
       <c r="J776" s="6"/>
     </row>
-    <row r="777" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I777" s="6"/>
       <c r="J777" s="6"/>
     </row>
-    <row r="778" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I778" s="6"/>
       <c r="J778" s="6"/>
     </row>
-    <row r="779" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I779" s="6"/>
       <c r="J779" s="6"/>
     </row>
-    <row r="780" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I780" s="6"/>
       <c r="J780" s="6"/>
     </row>
-    <row r="781" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I781" s="6"/>
       <c r="J781" s="6"/>
     </row>
-    <row r="782" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I782" s="6"/>
       <c r="J782" s="6"/>
     </row>
-    <row r="783" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I783" s="6"/>
       <c r="J783" s="6"/>
     </row>
-    <row r="784" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I784" s="6"/>
       <c r="J784" s="6"/>
     </row>
-    <row r="785" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I785" s="6"/>
       <c r="J785" s="6"/>
     </row>
-    <row r="786" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I786" s="6"/>
       <c r="J786" s="6"/>
     </row>
-    <row r="787" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I787" s="6"/>
       <c r="J787" s="6"/>
     </row>
-    <row r="788" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I788" s="6"/>
       <c r="J788" s="6"/>
     </row>
-    <row r="789" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I789" s="6"/>
       <c r="J789" s="6"/>
     </row>
-    <row r="790" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I790" s="6"/>
       <c r="J790" s="6"/>
     </row>
-    <row r="791" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I791" s="6"/>
       <c r="J791" s="6"/>
     </row>
-    <row r="792" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I792" s="6"/>
       <c r="J792" s="6"/>
     </row>
-    <row r="793" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I793" s="6"/>
       <c r="J793" s="6"/>
     </row>
-    <row r="794" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I794" s="6"/>
       <c r="J794" s="6"/>
     </row>
-    <row r="795" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I795" s="6"/>
       <c r="J795" s="6"/>
     </row>
-    <row r="796" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I796" s="6"/>
       <c r="J796" s="6"/>
     </row>
-    <row r="797" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I797" s="6"/>
       <c r="J797" s="6"/>
     </row>
-    <row r="798" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I798" s="6"/>
       <c r="J798" s="6"/>
     </row>
-    <row r="799" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I799" s="6"/>
       <c r="J799" s="6"/>
     </row>
-    <row r="800" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I800" s="6"/>
       <c r="J800" s="6"/>
     </row>
-    <row r="801" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I801" s="6"/>
       <c r="J801" s="6"/>
     </row>
-    <row r="802" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I802" s="6"/>
       <c r="J802" s="6"/>
     </row>
-    <row r="803" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I803" s="6"/>
       <c r="J803" s="6"/>
     </row>
-    <row r="804" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I804" s="6"/>
       <c r="J804" s="6"/>
     </row>
-    <row r="805" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I805" s="6"/>
       <c r="J805" s="6"/>
     </row>
-    <row r="806" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I806" s="6"/>
       <c r="J806" s="6"/>
     </row>
-    <row r="807" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I807" s="6"/>
       <c r="J807" s="6"/>
     </row>
-    <row r="808" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I808" s="6"/>
       <c r="J808" s="6"/>
     </row>
-    <row r="809" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I809" s="6"/>
       <c r="J809" s="6"/>
     </row>
-    <row r="810" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I810" s="6"/>
       <c r="J810" s="6"/>
     </row>
-    <row r="811" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I811" s="6"/>
       <c r="J811" s="6"/>
     </row>
-    <row r="812" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I812" s="6"/>
       <c r="J812" s="6"/>
     </row>
-    <row r="813" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I813" s="6"/>
       <c r="J813" s="6"/>
     </row>
-    <row r="814" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I814" s="6"/>
       <c r="J814" s="6"/>
     </row>
-    <row r="815" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I815" s="6"/>
       <c r="J815" s="6"/>
     </row>
-    <row r="816" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I816" s="6"/>
       <c r="J816" s="6"/>
     </row>
-    <row r="817" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I817" s="6"/>
       <c r="J817" s="6"/>
     </row>
-    <row r="818" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I818" s="6"/>
       <c r="J818" s="6"/>
     </row>
-    <row r="819" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I819" s="6"/>
       <c r="J819" s="6"/>
     </row>
-    <row r="820" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I820" s="6"/>
       <c r="J820" s="6"/>
     </row>
-    <row r="821" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I821" s="6"/>
       <c r="J821" s="6"/>
     </row>
-    <row r="822" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I822" s="6"/>
       <c r="J822" s="6"/>
     </row>
-    <row r="823" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I823" s="6"/>
       <c r="J823" s="6"/>
     </row>
-    <row r="824" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I824" s="6"/>
       <c r="J824" s="6"/>
     </row>
-    <row r="825" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I825" s="6"/>
       <c r="J825" s="6"/>
     </row>
-    <row r="826" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I826" s="6"/>
       <c r="J826" s="6"/>
     </row>
-    <row r="827" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I827" s="6"/>
       <c r="J827" s="6"/>
     </row>
-    <row r="828" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I828" s="6"/>
       <c r="J828" s="6"/>
     </row>
-    <row r="829" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I829" s="6"/>
       <c r="J829" s="6"/>
     </row>
-    <row r="830" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I830" s="6"/>
       <c r="J830" s="6"/>
     </row>
-    <row r="831" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I831" s="6"/>
       <c r="J831" s="6"/>
     </row>
-    <row r="832" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I832" s="6"/>
       <c r="J832" s="6"/>
     </row>
-    <row r="833" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I833" s="6"/>
       <c r="J833" s="6"/>
     </row>
-    <row r="834" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I834" s="6"/>
       <c r="J834" s="6"/>
     </row>
-    <row r="835" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I835" s="6"/>
       <c r="J835" s="6"/>
     </row>
-    <row r="836" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I836" s="6"/>
       <c r="J836" s="6"/>
     </row>
-    <row r="837" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I837" s="6"/>
       <c r="J837" s="6"/>
     </row>
-    <row r="838" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I838" s="6"/>
       <c r="J838" s="6"/>
     </row>
-    <row r="839" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I839" s="6"/>
       <c r="J839" s="6"/>
     </row>
-    <row r="840" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I840" s="6"/>
       <c r="J840" s="6"/>
     </row>
-    <row r="841" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I841" s="6"/>
       <c r="J841" s="6"/>
     </row>
-    <row r="842" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I842" s="6"/>
       <c r="J842" s="6"/>
     </row>
-    <row r="843" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I843" s="6"/>
       <c r="J843" s="6"/>
     </row>
-    <row r="844" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I844" s="6"/>
       <c r="J844" s="6"/>
     </row>
-    <row r="845" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I845" s="6"/>
       <c r="J845" s="6"/>
     </row>
-    <row r="846" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I846" s="6"/>
       <c r="J846" s="6"/>
     </row>
-    <row r="847" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I847" s="6"/>
       <c r="J847" s="6"/>
     </row>
-    <row r="848" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I848" s="6"/>
       <c r="J848" s="6"/>
     </row>
-    <row r="849" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I849" s="6"/>
       <c r="J849" s="6"/>
     </row>
-    <row r="850" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I850" s="6"/>
       <c r="J850" s="6"/>
     </row>
-    <row r="851" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I851" s="6"/>
       <c r="J851" s="6"/>
     </row>
-    <row r="852" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I852" s="6"/>
       <c r="J852" s="6"/>
     </row>
-    <row r="853" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I853" s="6"/>
       <c r="J853" s="6"/>
     </row>
-    <row r="854" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I854" s="6"/>
       <c r="J854" s="6"/>
     </row>
-    <row r="855" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I855" s="6"/>
       <c r="J855" s="6"/>
     </row>
-    <row r="856" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I856" s="6"/>
       <c r="J856" s="6"/>
     </row>
-    <row r="857" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I857" s="6"/>
       <c r="J857" s="6"/>
     </row>
-    <row r="858" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I858" s="6"/>
       <c r="J858" s="6"/>
     </row>
-    <row r="859" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I859" s="6"/>
       <c r="J859" s="6"/>
     </row>
-    <row r="860" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I860" s="6"/>
       <c r="J860" s="6"/>
     </row>
-    <row r="861" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I861" s="6"/>
       <c r="J861" s="6"/>
     </row>
-    <row r="862" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I862" s="6"/>
       <c r="J862" s="6"/>
     </row>
-    <row r="863" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I863" s="6"/>
       <c r="J863" s="6"/>
     </row>
-    <row r="864" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I864" s="6"/>
       <c r="J864" s="6"/>
     </row>
-    <row r="865" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I865" s="6"/>
       <c r="J865" s="6"/>
     </row>
-    <row r="866" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I866" s="6"/>
       <c r="J866" s="6"/>
     </row>
-    <row r="867" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I867" s="6"/>
       <c r="J867" s="6"/>
     </row>
-    <row r="868" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I868" s="6"/>
       <c r="J868" s="6"/>
     </row>
-    <row r="869" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I869" s="6"/>
       <c r="J869" s="6"/>
     </row>
-    <row r="870" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I870" s="6"/>
       <c r="J870" s="6"/>
     </row>
-    <row r="871" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I871" s="6"/>
       <c r="J871" s="6"/>
     </row>
-    <row r="872" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I872" s="6"/>
       <c r="J872" s="6"/>
     </row>
-    <row r="873" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I873" s="6"/>
       <c r="J873" s="6"/>
     </row>
-    <row r="874" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I874" s="6"/>
       <c r="J874" s="6"/>
     </row>
-    <row r="875" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I875" s="6"/>
       <c r="J875" s="6"/>
     </row>
-    <row r="876" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I876" s="6"/>
       <c r="J876" s="6"/>
     </row>
-    <row r="877" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I877" s="6"/>
       <c r="J877" s="6"/>
     </row>
-    <row r="878" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I878" s="6"/>
       <c r="J878" s="6"/>
     </row>
-    <row r="879" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I879" s="6"/>
       <c r="J879" s="6"/>
     </row>
-    <row r="880" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I880" s="6"/>
       <c r="J880" s="6"/>
     </row>
-    <row r="881" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I881" s="6"/>
       <c r="J881" s="6"/>
     </row>
-    <row r="882" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I882" s="6"/>
       <c r="J882" s="6"/>
     </row>
-    <row r="883" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I883" s="6"/>
       <c r="J883" s="6"/>
     </row>
-    <row r="884" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I884" s="6"/>
       <c r="J884" s="6"/>
     </row>
-    <row r="885" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I885" s="6"/>
       <c r="J885" s="6"/>
     </row>
-    <row r="886" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I886" s="6"/>
       <c r="J886" s="6"/>
     </row>
-    <row r="887" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I887" s="6"/>
       <c r="J887" s="6"/>
     </row>
-    <row r="888" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I888" s="6"/>
       <c r="J888" s="6"/>
     </row>
-    <row r="889" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I889" s="6"/>
       <c r="J889" s="6"/>
     </row>
-    <row r="890" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I890" s="6"/>
       <c r="J890" s="6"/>
     </row>
-    <row r="891" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I891" s="6"/>
       <c r="J891" s="6"/>
     </row>
-    <row r="892" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I892" s="6"/>
       <c r="J892" s="6"/>
     </row>
-    <row r="893" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I893" s="6"/>
       <c r="J893" s="6"/>
     </row>
-    <row r="894" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I894" s="6"/>
       <c r="J894" s="6"/>
     </row>
-    <row r="895" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I895" s="6"/>
       <c r="J895" s="6"/>
     </row>
-    <row r="896" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I896" s="6"/>
       <c r="J896" s="6"/>
     </row>
-    <row r="897" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I897" s="6"/>
       <c r="J897" s="6"/>
     </row>
-    <row r="898" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I898" s="6"/>
       <c r="J898" s="6"/>
     </row>
-    <row r="899" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I899" s="6"/>
       <c r="J899" s="6"/>
     </row>
-    <row r="900" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I900" s="6"/>
       <c r="J900" s="6"/>
     </row>
-    <row r="901" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I901" s="6"/>
       <c r="J901" s="6"/>
     </row>
-    <row r="902" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I902" s="6"/>
       <c r="J902" s="6"/>
     </row>
-    <row r="903" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I903" s="6"/>
       <c r="J903" s="6"/>
     </row>
-    <row r="904" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I904" s="6"/>
       <c r="J904" s="6"/>
     </row>
-    <row r="905" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I905" s="6"/>
       <c r="J905" s="6"/>
     </row>
-    <row r="906" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I906" s="6"/>
       <c r="J906" s="6"/>
     </row>
-    <row r="907" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I907" s="6"/>
       <c r="J907" s="6"/>
     </row>
-    <row r="908" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I908" s="6"/>
       <c r="J908" s="6"/>
     </row>
-    <row r="909" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I909" s="6"/>
       <c r="J909" s="6"/>
     </row>
-    <row r="910" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I910" s="6"/>
       <c r="J910" s="6"/>
     </row>
-    <row r="911" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I911" s="6"/>
       <c r="J911" s="6"/>
     </row>
-    <row r="912" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I912" s="6"/>
       <c r="J912" s="6"/>
     </row>
-    <row r="913" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I913" s="6"/>
       <c r="J913" s="6"/>
     </row>
-    <row r="914" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I914" s="6"/>
       <c r="J914" s="6"/>
     </row>
-    <row r="915" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I915" s="6"/>
       <c r="J915" s="6"/>
     </row>
-    <row r="916" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I916" s="6"/>
       <c r="J916" s="6"/>
     </row>
-    <row r="917" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I917" s="6"/>
       <c r="J917" s="6"/>
     </row>
-    <row r="918" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I918" s="6"/>
       <c r="J918" s="6"/>
     </row>
-    <row r="919" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I919" s="6"/>
       <c r="J919" s="6"/>
     </row>
-    <row r="920" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I920" s="6"/>
       <c r="J920" s="6"/>
     </row>
-    <row r="921" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I921" s="6"/>
       <c r="J921" s="6"/>
     </row>
-    <row r="922" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I922" s="6"/>
       <c r="J922" s="6"/>
     </row>
-    <row r="923" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I923" s="6"/>
       <c r="J923" s="6"/>
     </row>
-    <row r="924" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I924" s="6"/>
       <c r="J924" s="6"/>
     </row>
-    <row r="925" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I925" s="6"/>
       <c r="J925" s="6"/>
     </row>
-    <row r="926" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I926" s="6"/>
       <c r="J926" s="6"/>
     </row>
-    <row r="927" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I927" s="6"/>
       <c r="J927" s="6"/>
     </row>
-    <row r="928" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I928" s="6"/>
       <c r="J928" s="6"/>
     </row>
-    <row r="929" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I929" s="6"/>
       <c r="J929" s="6"/>
     </row>
-    <row r="930" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I930" s="6"/>
       <c r="J930" s="6"/>
     </row>
-    <row r="931" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I931" s="6"/>
       <c r="J931" s="6"/>
     </row>
-    <row r="932" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I932" s="6"/>
       <c r="J932" s="6"/>
     </row>
-    <row r="933" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I933" s="6"/>
       <c r="J933" s="6"/>
     </row>
-    <row r="934" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I934" s="6"/>
       <c r="J934" s="6"/>
     </row>
-    <row r="935" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I935" s="6"/>
       <c r="J935" s="6"/>
     </row>
-    <row r="936" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I936" s="6"/>
       <c r="J936" s="6"/>
     </row>
-    <row r="937" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I937" s="6"/>
       <c r="J937" s="6"/>
     </row>
-    <row r="938" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I938" s="6"/>
       <c r="J938" s="6"/>
     </row>
-    <row r="939" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I939" s="6"/>
       <c r="J939" s="6"/>
     </row>
-    <row r="940" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I940" s="6"/>
       <c r="J940" s="6"/>
     </row>
-    <row r="941" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I941" s="6"/>
       <c r="J941" s="6"/>
     </row>
-    <row r="942" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I942" s="6"/>
       <c r="J942" s="6"/>
     </row>
-    <row r="943" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I943" s="6"/>
       <c r="J943" s="6"/>
     </row>
-    <row r="944" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I944" s="6"/>
       <c r="J944" s="6"/>
     </row>
-    <row r="945" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I945" s="6"/>
       <c r="J945" s="6"/>
     </row>
-    <row r="946" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I946" s="6"/>
       <c r="J946" s="6"/>
     </row>
-    <row r="947" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I947" s="6"/>
       <c r="J947" s="6"/>
     </row>
-    <row r="948" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I948" s="6"/>
       <c r="J948" s="6"/>
     </row>
-    <row r="949" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I949" s="6"/>
       <c r="J949" s="6"/>
     </row>
-    <row r="950" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I950" s="6"/>
       <c r="J950" s="6"/>
     </row>
-    <row r="951" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I951" s="6"/>
       <c r="J951" s="6"/>
     </row>
-    <row r="952" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I952" s="6"/>
       <c r="J952" s="6"/>
     </row>
-    <row r="953" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I953" s="6"/>
       <c r="J953" s="6"/>
     </row>
-    <row r="954" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I954" s="6"/>
       <c r="J954" s="6"/>
     </row>
-    <row r="955" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I955" s="6"/>
       <c r="J955" s="6"/>
     </row>
-    <row r="956" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I956" s="6"/>
       <c r="J956" s="6"/>
     </row>
-    <row r="957" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I957" s="6"/>
       <c r="J957" s="6"/>
     </row>
-    <row r="958" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I958" s="6"/>
       <c r="J958" s="6"/>
     </row>
-    <row r="959" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I959" s="6"/>
       <c r="J959" s="6"/>
     </row>
-    <row r="960" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I960" s="6"/>
       <c r="J960" s="6"/>
     </row>
-    <row r="961" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I961" s="6"/>
       <c r="J961" s="6"/>
     </row>
-    <row r="962" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I962" s="6"/>
       <c r="J962" s="6"/>
     </row>
-    <row r="963" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I963" s="6"/>
       <c r="J963" s="6"/>
     </row>
-    <row r="964" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I964" s="6"/>
       <c r="J964" s="6"/>
     </row>
-    <row r="965" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I965" s="6"/>
       <c r="J965" s="6"/>
     </row>
-    <row r="966" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I966" s="6"/>
       <c r="J966" s="6"/>
     </row>
-    <row r="967" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I967" s="6"/>
       <c r="J967" s="6"/>
     </row>
-    <row r="968" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I968" s="6"/>
       <c r="J968" s="6"/>
     </row>
-    <row r="969" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I969" s="6"/>
       <c r="J969" s="6"/>
     </row>
-    <row r="970" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I970" s="6"/>
       <c r="J970" s="6"/>
     </row>
-    <row r="971" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I971" s="6"/>
       <c r="J971" s="6"/>
     </row>
-    <row r="972" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I972" s="6"/>
       <c r="J972" s="6"/>
     </row>
-    <row r="973" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I973" s="6"/>
       <c r="J973" s="6"/>
     </row>
-    <row r="974" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I974" s="6"/>
       <c r="J974" s="6"/>
     </row>
-    <row r="975" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I975" s="6"/>
       <c r="J975" s="6"/>
     </row>
-    <row r="976" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I976" s="6"/>
       <c r="J976" s="6"/>
     </row>
-    <row r="977" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I977" s="6"/>
       <c r="J977" s="6"/>
     </row>
-    <row r="978" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I978" s="6"/>
       <c r="J978" s="6"/>
     </row>
-    <row r="979" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I979" s="6"/>
       <c r="J979" s="6"/>
     </row>
-    <row r="980" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I980" s="6"/>
       <c r="J980" s="6"/>
     </row>
-    <row r="981" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I981" s="6"/>
       <c r="J981" s="6"/>
     </row>
-    <row r="982" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I982" s="6"/>
       <c r="J982" s="6"/>
     </row>
-    <row r="983" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I983" s="6"/>
       <c r="J983" s="6"/>
     </row>
-    <row r="984" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I984" s="6"/>
       <c r="J984" s="6"/>
     </row>
-    <row r="985" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I985" s="6"/>
       <c r="J985" s="6"/>
     </row>
-    <row r="986" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I986" s="6"/>
       <c r="J986" s="6"/>
     </row>
-    <row r="987" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I987" s="6"/>
       <c r="J987" s="6"/>
     </row>
-    <row r="988" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I988" s="6"/>
       <c r="J988" s="6"/>
     </row>
-    <row r="989" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I989" s="6"/>
       <c r="J989" s="6"/>
     </row>
-    <row r="990" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I990" s="6"/>
       <c r="J990" s="6"/>
     </row>
-    <row r="991" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I991" s="6"/>
       <c r="J991" s="6"/>
     </row>
-    <row r="992" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I992" s="6"/>
       <c r="J992" s="6"/>
     </row>
-    <row r="993" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I993" s="6"/>
       <c r="J993" s="6"/>
     </row>
-    <row r="994" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I994" s="6"/>
       <c r="J994" s="6"/>
     </row>
-    <row r="995" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I995" s="6"/>
       <c r="J995" s="6"/>
     </row>
-    <row r="996" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I996" s="6"/>
       <c r="J996" s="6"/>
     </row>
-    <row r="997" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I997" s="6"/>
       <c r="J997" s="6"/>
     </row>
-    <row r="998" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I998" s="6"/>
       <c r="J998" s="6"/>
     </row>
-    <row r="999" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I999" s="6"/>
       <c r="J999" s="6"/>
     </row>
-    <row r="1000" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I1000" s="6"/>
       <c r="J1000" s="6"/>
     </row>
-    <row r="1001" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1001" spans="9:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I1001" s="6"/>
       <c r="J1001" s="6"/>
     </row>
